--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5477,28 +5477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4550.057337827478</v>
+        <v>5127.443431102908</v>
       </c>
       <c r="AB2" t="n">
-        <v>6225.589183978537</v>
+        <v>7015.594309274703</v>
       </c>
       <c r="AC2" t="n">
-        <v>5631.427689928687</v>
+        <v>6346.035834845714</v>
       </c>
       <c r="AD2" t="n">
-        <v>4550057.337827479</v>
+        <v>5127443.431102908</v>
       </c>
       <c r="AE2" t="n">
-        <v>6225589.183978537</v>
+        <v>7015594.309274703</v>
       </c>
       <c r="AF2" t="n">
         <v>1.379253073318168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>114</v>
+        <v>113.7962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>5631427.689928687</v>
+        <v>6346035.834845714</v>
       </c>
     </row>
     <row r="3">
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2766.730974253629</v>
+        <v>3177.746371351917</v>
       </c>
       <c r="AB3" t="n">
-        <v>3785.563378530084</v>
+        <v>4347.932777559572</v>
       </c>
       <c r="AC3" t="n">
-        <v>3424.274522754601</v>
+        <v>3932.972175631102</v>
       </c>
       <c r="AD3" t="n">
-        <v>2766730.974253628</v>
+        <v>3177746.371351917</v>
       </c>
       <c r="AE3" t="n">
-        <v>3785563.378530084</v>
+        <v>4347932.777559572</v>
       </c>
       <c r="AF3" t="n">
         <v>1.948122077601888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>3424274.522754601</v>
+        <v>3932972.175631102</v>
       </c>
     </row>
     <row r="4">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2377.096219211197</v>
+        <v>2739.135855568821</v>
       </c>
       <c r="AB4" t="n">
-        <v>3252.447917208778</v>
+        <v>3747.806519734811</v>
       </c>
       <c r="AC4" t="n">
-        <v>2942.038852829572</v>
+        <v>3390.121125570667</v>
       </c>
       <c r="AD4" t="n">
-        <v>2377096.219211197</v>
+        <v>2739135.855568821</v>
       </c>
       <c r="AE4" t="n">
-        <v>3252447.917208778</v>
+        <v>3747806.519734812</v>
       </c>
       <c r="AF4" t="n">
         <v>2.171737092634988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.26851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>2942038.852829572</v>
+        <v>3390121.125570667</v>
       </c>
     </row>
     <row r="5">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2194.307783851846</v>
+        <v>2536.770377668772</v>
       </c>
       <c r="AB5" t="n">
-        <v>3002.348715893464</v>
+        <v>3470.921145137152</v>
       </c>
       <c r="AC5" t="n">
-        <v>2715.808768271366</v>
+        <v>3139.661302513555</v>
       </c>
       <c r="AD5" t="n">
-        <v>2194307.783851846</v>
+        <v>2536770.377668772</v>
       </c>
       <c r="AE5" t="n">
-        <v>3002348.715893464</v>
+        <v>3470921.145137152</v>
       </c>
       <c r="AF5" t="n">
         <v>2.295410163411329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.37962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>2715808.768271366</v>
+        <v>3139661.302513555</v>
       </c>
     </row>
     <row r="6">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2095.308916765518</v>
+        <v>2427.982989312099</v>
       </c>
       <c r="AB6" t="n">
-        <v>2866.894098424007</v>
+        <v>3322.073441026691</v>
       </c>
       <c r="AC6" t="n">
-        <v>2593.281749381557</v>
+        <v>3005.019414374337</v>
       </c>
       <c r="AD6" t="n">
-        <v>2095308.916765518</v>
+        <v>2427982.989312099</v>
       </c>
       <c r="AE6" t="n">
-        <v>2866894.098424007</v>
+        <v>3322073.441026691</v>
       </c>
       <c r="AF6" t="n">
         <v>2.368773245966154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.26157407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>2593281.749381558</v>
+        <v>3005019.414374337</v>
       </c>
     </row>
     <row r="7">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2019.064794077443</v>
+        <v>2351.772021012948</v>
       </c>
       <c r="AB7" t="n">
-        <v>2762.573526108885</v>
+        <v>3217.798232009156</v>
       </c>
       <c r="AC7" t="n">
-        <v>2498.917386073348</v>
+        <v>2910.696084954265</v>
       </c>
       <c r="AD7" t="n">
-        <v>2019064.794077443</v>
+        <v>2351772.021012948</v>
       </c>
       <c r="AE7" t="n">
-        <v>2762573.526108885</v>
+        <v>3217798.232009157</v>
       </c>
       <c r="AF7" t="n">
         <v>2.42193096937002e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>64.80324074074075</v>
       </c>
       <c r="AH7" t="n">
-        <v>2498917.386073348</v>
+        <v>2910696.084954265</v>
       </c>
     </row>
     <row r="8">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1966.15483009079</v>
+        <v>2289.107701174726</v>
       </c>
       <c r="AB8" t="n">
-        <v>2690.179779159475</v>
+        <v>3132.058145051818</v>
       </c>
       <c r="AC8" t="n">
-        <v>2433.432796727528</v>
+        <v>2833.13891155917</v>
       </c>
       <c r="AD8" t="n">
-        <v>1966154.83009079</v>
+        <v>2289107.701174726</v>
       </c>
       <c r="AE8" t="n">
-        <v>2690179.779159475</v>
+        <v>3132058.145051818</v>
       </c>
       <c r="AF8" t="n">
         <v>2.460443197550372e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.7962962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>2433432.796727528</v>
+        <v>2833138.91155917</v>
       </c>
     </row>
     <row r="9">
@@ -6219,28 +6219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1935.94786072213</v>
+        <v>2249.079056146795</v>
       </c>
       <c r="AB9" t="n">
-        <v>2648.84927103184</v>
+        <v>3077.289186985415</v>
       </c>
       <c r="AC9" t="n">
-        <v>2396.046814287862</v>
+        <v>2783.597025981911</v>
       </c>
       <c r="AD9" t="n">
-        <v>1935947.86072213</v>
+        <v>2249079.056146795</v>
       </c>
       <c r="AE9" t="n">
-        <v>2648849.27103184</v>
+        <v>3077289.186985415</v>
       </c>
       <c r="AF9" t="n">
         <v>2.486750846377796e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>64</v>
+        <v>63.11342592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>2396046.814287862</v>
+        <v>2783597.025981911</v>
       </c>
     </row>
     <row r="10">
@@ -6325,28 +6325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1896.071392168376</v>
+        <v>2209.168422174259</v>
       </c>
       <c r="AB10" t="n">
-        <v>2594.28852753096</v>
+        <v>3022.681696851284</v>
       </c>
       <c r="AC10" t="n">
-        <v>2346.693271570221</v>
+        <v>2734.201198064089</v>
       </c>
       <c r="AD10" t="n">
-        <v>1896071.392168376</v>
+        <v>2209168.422174259</v>
       </c>
       <c r="AE10" t="n">
-        <v>2594288.52753096</v>
+        <v>3022681.696851284</v>
       </c>
       <c r="AF10" t="n">
         <v>2.511295611520908e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>2346693.271570222</v>
+        <v>2734201.198064089</v>
       </c>
     </row>
     <row r="11">
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1874.175269052909</v>
+        <v>2187.27229905879</v>
       </c>
       <c r="AB11" t="n">
-        <v>2564.329285895603</v>
+        <v>2992.72245521575</v>
       </c>
       <c r="AC11" t="n">
-        <v>2319.593297908483</v>
+        <v>2707.101224402305</v>
       </c>
       <c r="AD11" t="n">
-        <v>1874175.269052909</v>
+        <v>2187272.29905879</v>
       </c>
       <c r="AE11" t="n">
-        <v>2564329.285895603</v>
+        <v>2992722.45521575</v>
       </c>
       <c r="AF11" t="n">
         <v>2.527161564679714e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>63</v>
+        <v>62.10648148148147</v>
       </c>
       <c r="AH11" t="n">
-        <v>2319593.297908483</v>
+        <v>2707101.224402305</v>
       </c>
     </row>
     <row r="12">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1840.572906499375</v>
+        <v>2153.73725631296</v>
       </c>
       <c r="AB12" t="n">
-        <v>2518.353051018246</v>
+        <v>2946.838330269235</v>
       </c>
       <c r="AC12" t="n">
-        <v>2278.004970359771</v>
+        <v>2665.596215941911</v>
       </c>
       <c r="AD12" t="n">
-        <v>1840572.906499375</v>
+        <v>2153737.25631296</v>
       </c>
       <c r="AE12" t="n">
-        <v>2518353.051018246</v>
+        <v>2946838.330269235</v>
       </c>
       <c r="AF12" t="n">
         <v>2.545197220834598e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>62</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2278004.970359771</v>
+        <v>2665596.215941911</v>
       </c>
     </row>
     <row r="13">
@@ -6643,28 +6643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1821.11243104659</v>
+        <v>2134.17529563369</v>
       </c>
       <c r="AB13" t="n">
-        <v>2491.726369968161</v>
+        <v>2920.07279265506</v>
       </c>
       <c r="AC13" t="n">
-        <v>2253.919502378324</v>
+        <v>2641.385143671965</v>
       </c>
       <c r="AD13" t="n">
-        <v>1821112.43104659</v>
+        <v>2134175.29563369</v>
       </c>
       <c r="AE13" t="n">
-        <v>2491726.369968161</v>
+        <v>2920072.79265506</v>
       </c>
       <c r="AF13" t="n">
         <v>2.555774522940469e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>62</v>
+        <v>61.41203703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>2253919.502378324</v>
+        <v>2641385.143671965</v>
       </c>
     </row>
     <row r="14">
@@ -6749,28 +6749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1800.799510594621</v>
+        <v>2104.142184748935</v>
       </c>
       <c r="AB14" t="n">
-        <v>2463.933336062974</v>
+        <v>2878.980165375198</v>
       </c>
       <c r="AC14" t="n">
-        <v>2228.77899662128</v>
+        <v>2604.214339065828</v>
       </c>
       <c r="AD14" t="n">
-        <v>1800799.510594621</v>
+        <v>2104142.184748935</v>
       </c>
       <c r="AE14" t="n">
-        <v>2463933.336062974</v>
+        <v>2878980.165375198</v>
       </c>
       <c r="AF14" t="n">
         <v>2.567301070107124e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>62</v>
+        <v>61.13425925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>2228778.99662128</v>
+        <v>2604214.339065828</v>
       </c>
     </row>
     <row r="15">
@@ -6855,28 +6855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1777.252528895926</v>
+        <v>2090.382713290731</v>
       </c>
       <c r="AB15" t="n">
-        <v>2431.715316883303</v>
+        <v>2860.153849501044</v>
       </c>
       <c r="AC15" t="n">
-        <v>2199.635819973842</v>
+        <v>2587.184780355803</v>
       </c>
       <c r="AD15" t="n">
-        <v>1777252.528895926</v>
+        <v>2090382.713290731</v>
       </c>
       <c r="AE15" t="n">
-        <v>2431715.316883303</v>
+        <v>2860153.849501044</v>
       </c>
       <c r="AF15" t="n">
         <v>2.575301849905155e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>61</v>
+        <v>60.94907407407408</v>
       </c>
       <c r="AH15" t="n">
-        <v>2199635.819973842</v>
+        <v>2587184.780355803</v>
       </c>
     </row>
     <row r="16">
@@ -6961,28 +6961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1756.64558564397</v>
+        <v>2069.775770038775</v>
       </c>
       <c r="AB16" t="n">
-        <v>2403.519988011803</v>
+        <v>2831.958520629543</v>
       </c>
       <c r="AC16" t="n">
-        <v>2174.131413717445</v>
+        <v>2561.680374099406</v>
       </c>
       <c r="AD16" t="n">
-        <v>1756645.58564397</v>
+        <v>2069775.770038775</v>
       </c>
       <c r="AE16" t="n">
-        <v>2403519.988011803</v>
+        <v>2831958.520629543</v>
       </c>
       <c r="AF16" t="n">
         <v>2.583845055452204e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>61</v>
+        <v>60.74074074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>2174131.413717445</v>
+        <v>2561680.374099406</v>
       </c>
     </row>
     <row r="17">
@@ -7067,28 +7067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1736.842863027663</v>
+        <v>2040.252856989681</v>
       </c>
       <c r="AB17" t="n">
-        <v>2376.425029293708</v>
+        <v>2791.563968536773</v>
       </c>
       <c r="AC17" t="n">
-        <v>2149.622359831392</v>
+        <v>2525.141021364259</v>
       </c>
       <c r="AD17" t="n">
-        <v>1736842.863027663</v>
+        <v>2040252.856989681</v>
       </c>
       <c r="AE17" t="n">
-        <v>2376425.029293708</v>
+        <v>2791563.968536773</v>
       </c>
       <c r="AF17" t="n">
         <v>2.593608718934548e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>61</v>
+        <v>60.50925925925927</v>
       </c>
       <c r="AH17" t="n">
-        <v>2149622.359831392</v>
+        <v>2525141.02136426</v>
       </c>
     </row>
     <row r="18">
@@ -7173,28 +7173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1725.94293171056</v>
+        <v>2029.251440446093</v>
       </c>
       <c r="AB18" t="n">
-        <v>2361.511262394617</v>
+        <v>2776.511345073592</v>
       </c>
       <c r="AC18" t="n">
-        <v>2136.131941913546</v>
+        <v>2511.524999157915</v>
       </c>
       <c r="AD18" t="n">
-        <v>1725942.93171056</v>
+        <v>2029251.440446093</v>
       </c>
       <c r="AE18" t="n">
-        <v>2361511.262394616</v>
+        <v>2776511.345073592</v>
       </c>
       <c r="AF18" t="n">
         <v>2.595507209056114e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>61</v>
+        <v>60.47453703703704</v>
       </c>
       <c r="AH18" t="n">
-        <v>2136131.941913546</v>
+        <v>2511524.999157915</v>
       </c>
     </row>
     <row r="19">
@@ -7279,28 +7279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1712.828372074987</v>
+        <v>2016.13688081052</v>
       </c>
       <c r="AB19" t="n">
-        <v>2343.567343327687</v>
+        <v>2758.567426006663</v>
       </c>
       <c r="AC19" t="n">
-        <v>2119.900565297917</v>
+        <v>2495.293622542285</v>
       </c>
       <c r="AD19" t="n">
-        <v>1712828.372074987</v>
+        <v>2016136.88081052</v>
       </c>
       <c r="AE19" t="n">
-        <v>2343567.343327688</v>
+        <v>2758567.426006663</v>
       </c>
       <c r="AF19" t="n">
         <v>2.602694350230616e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>61</v>
+        <v>60.30092592592593</v>
       </c>
       <c r="AH19" t="n">
-        <v>2119900.565297917</v>
+        <v>2495293.622542285</v>
       </c>
     </row>
     <row r="20">
@@ -7385,28 +7385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1715.683126906544</v>
+        <v>2018.991635642077</v>
       </c>
       <c r="AB20" t="n">
-        <v>2347.473344831119</v>
+        <v>2762.473427510094</v>
       </c>
       <c r="AC20" t="n">
-        <v>2123.433783499968</v>
+        <v>2498.826840744337</v>
       </c>
       <c r="AD20" t="n">
-        <v>1715683.126906544</v>
+        <v>2018991.635642077</v>
       </c>
       <c r="AE20" t="n">
-        <v>2347473.344831119</v>
+        <v>2762473.427510094</v>
       </c>
       <c r="AF20" t="n">
         <v>2.601880711607088e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>61</v>
+        <v>60.32407407407408</v>
       </c>
       <c r="AH20" t="n">
-        <v>2123433.783499968</v>
+        <v>2498826.840744337</v>
       </c>
     </row>
     <row r="21">
@@ -7491,28 +7491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1719.03181382661</v>
+        <v>2022.340322562143</v>
       </c>
       <c r="AB21" t="n">
-        <v>2352.055166008793</v>
+        <v>2767.055248687769</v>
       </c>
       <c r="AC21" t="n">
-        <v>2127.578322095072</v>
+        <v>2502.97137933944</v>
       </c>
       <c r="AD21" t="n">
-        <v>1719031.81382661</v>
+        <v>2022340.322562143</v>
       </c>
       <c r="AE21" t="n">
-        <v>2352055.166008793</v>
+        <v>2767055.248687769</v>
       </c>
       <c r="AF21" t="n">
         <v>2.600389040797285e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>61</v>
+        <v>60.3587962962963</v>
       </c>
       <c r="AH21" t="n">
-        <v>2127578.322095072</v>
+        <v>2502971.37933944</v>
       </c>
     </row>
   </sheetData>
@@ -7788,28 +7788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3491.846566642439</v>
+        <v>3985.384757233907</v>
       </c>
       <c r="AB2" t="n">
-        <v>4777.698521878718</v>
+        <v>5452.979247614285</v>
       </c>
       <c r="AC2" t="n">
-        <v>4321.721680492424</v>
+        <v>4932.554561526213</v>
       </c>
       <c r="AD2" t="n">
-        <v>3491846.566642439</v>
+        <v>3985384.757233907</v>
       </c>
       <c r="AE2" t="n">
-        <v>4777698.521878717</v>
+        <v>5452979.247614285</v>
       </c>
       <c r="AF2" t="n">
         <v>1.727124661545247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>99.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>4321721.680492423</v>
+        <v>4932554.561526213</v>
       </c>
     </row>
     <row r="3">
@@ -7894,28 +7894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2332.418319644128</v>
+        <v>2700.177702121751</v>
       </c>
       <c r="AB3" t="n">
-        <v>3191.317643971292</v>
+        <v>3694.502255476099</v>
       </c>
       <c r="AC3" t="n">
-        <v>2886.742767072995</v>
+        <v>3341.904145479802</v>
       </c>
       <c r="AD3" t="n">
-        <v>2332418.319644128</v>
+        <v>2700177.702121751</v>
       </c>
       <c r="AE3" t="n">
-        <v>3191317.643971291</v>
+        <v>3694502.255476099</v>
       </c>
       <c r="AF3" t="n">
         <v>2.284433959549022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.17361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2886742.767072995</v>
+        <v>3341904.145479802</v>
       </c>
     </row>
     <row r="4">
@@ -8000,28 +8000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2044.735322442627</v>
+        <v>2393.13259559018</v>
       </c>
       <c r="AB4" t="n">
-        <v>2797.697075521912</v>
+        <v>3274.389594845499</v>
       </c>
       <c r="AC4" t="n">
-        <v>2530.688793226608</v>
+        <v>2961.88644754798</v>
       </c>
       <c r="AD4" t="n">
-        <v>2044735.322442628</v>
+        <v>2393132.59559018</v>
       </c>
       <c r="AE4" t="n">
-        <v>2797697.075521912</v>
+        <v>3274389.594845499</v>
       </c>
       <c r="AF4" t="n">
         <v>2.496318325243748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.79629629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>2530688.793226608</v>
+        <v>2961886.447547981</v>
       </c>
     </row>
     <row r="5">
@@ -8106,28 +8106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1914.531391892556</v>
+        <v>2243.601732158673</v>
       </c>
       <c r="AB5" t="n">
-        <v>2619.546313551295</v>
+        <v>3069.794870662387</v>
       </c>
       <c r="AC5" t="n">
-        <v>2369.540489942301</v>
+        <v>2776.817956690413</v>
       </c>
       <c r="AD5" t="n">
-        <v>1914531.391892556</v>
+        <v>2243601.732158673</v>
       </c>
       <c r="AE5" t="n">
-        <v>2619546.313551295</v>
+        <v>3069794.870662387</v>
       </c>
       <c r="AF5" t="n">
         <v>2.605821589867493e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>66</v>
+        <v>65.90277777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>2369540.489942301</v>
+        <v>2776817.956690413</v>
       </c>
     </row>
     <row r="6">
@@ -8212,28 +8212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1839.930677260415</v>
+        <v>2159.253148568717</v>
       </c>
       <c r="AB6" t="n">
-        <v>2517.474324640347</v>
+        <v>2954.385417397553</v>
       </c>
       <c r="AC6" t="n">
-        <v>2277.210108394078</v>
+        <v>2672.423019667106</v>
       </c>
       <c r="AD6" t="n">
-        <v>1839930.677260415</v>
+        <v>2159253.148568717</v>
       </c>
       <c r="AE6" t="n">
-        <v>2517474.324640347</v>
+        <v>2954385.417397553</v>
       </c>
       <c r="AF6" t="n">
         <v>2.675707819728989e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>64.18981481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>2277210.108394078</v>
+        <v>2672423.019667106</v>
       </c>
     </row>
     <row r="7">
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1785.34401046483</v>
+        <v>2095.020098041804</v>
       </c>
       <c r="AB7" t="n">
-        <v>2442.786438936851</v>
+        <v>2866.498923904439</v>
       </c>
       <c r="AC7" t="n">
-        <v>2209.650329677017</v>
+        <v>2592.924289763506</v>
       </c>
       <c r="AD7" t="n">
-        <v>1785344.01046483</v>
+        <v>2095020.098041805</v>
       </c>
       <c r="AE7" t="n">
-        <v>2442786.438936851</v>
+        <v>2866498.923904439</v>
       </c>
       <c r="AF7" t="n">
         <v>2.723337288488098e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.05555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>2209650.329677017</v>
+        <v>2592924.289763507</v>
       </c>
     </row>
     <row r="8">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1740.628373719202</v>
+        <v>2050.270295877396</v>
       </c>
       <c r="AB8" t="n">
-        <v>2381.604532026816</v>
+        <v>2805.270270361157</v>
       </c>
       <c r="AC8" t="n">
-        <v>2154.30753809313</v>
+        <v>2537.53921297944</v>
       </c>
       <c r="AD8" t="n">
-        <v>1740628.373719202</v>
+        <v>2050270.295877396</v>
       </c>
       <c r="AE8" t="n">
-        <v>2381604.532026816</v>
+        <v>2805270.270361157</v>
       </c>
       <c r="AF8" t="n">
         <v>2.756128916512281e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>63</v>
+        <v>62.31481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>2154307.538093131</v>
+        <v>2537539.212979441</v>
       </c>
     </row>
     <row r="9">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1698.28949201284</v>
+        <v>2007.998733978738</v>
       </c>
       <c r="AB9" t="n">
-        <v>2323.674606216538</v>
+        <v>2747.43245448172</v>
       </c>
       <c r="AC9" t="n">
-        <v>2101.906363097024</v>
+        <v>2485.221357071653</v>
       </c>
       <c r="AD9" t="n">
-        <v>1698289.49201284</v>
+        <v>2007998.733978738</v>
       </c>
       <c r="AE9" t="n">
-        <v>2323674.606216538</v>
+        <v>2747432.45448172</v>
       </c>
       <c r="AF9" t="n">
         <v>2.782540273020448e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.71296296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>2101906.363097024</v>
+        <v>2485221.357071653</v>
       </c>
     </row>
     <row r="10">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1673.286547136656</v>
+        <v>1973.282085563522</v>
       </c>
       <c r="AB10" t="n">
-        <v>2289.464473984865</v>
+        <v>2699.931604529589</v>
       </c>
       <c r="AC10" t="n">
-        <v>2070.961197871319</v>
+        <v>2442.25392157109</v>
       </c>
       <c r="AD10" t="n">
-        <v>1673286.547136656</v>
+        <v>1973282.085563522</v>
       </c>
       <c r="AE10" t="n">
-        <v>2289464.473984865</v>
+        <v>2699931.604529588</v>
       </c>
       <c r="AF10" t="n">
         <v>2.801532709161152e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.2962962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>2070961.197871319</v>
+        <v>2442253.92157109</v>
       </c>
     </row>
     <row r="11">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1633.999408844018</v>
+        <v>1943.674485391135</v>
       </c>
       <c r="AB11" t="n">
-        <v>2235.710078146661</v>
+        <v>2659.421179778595</v>
       </c>
       <c r="AC11" t="n">
-        <v>2022.337046127145</v>
+        <v>2405.609754901594</v>
       </c>
       <c r="AD11" t="n">
-        <v>1633999.408844018</v>
+        <v>1943674.485391135</v>
       </c>
       <c r="AE11" t="n">
-        <v>2235710.078146661</v>
+        <v>2659421.179778595</v>
       </c>
       <c r="AF11" t="n">
         <v>2.820080010079808e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.8912037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>2022337.046127145</v>
+        <v>2405609.754901594</v>
       </c>
     </row>
     <row r="12">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1612.539213037139</v>
+        <v>1912.60207127171</v>
       </c>
       <c r="AB12" t="n">
-        <v>2206.347291486669</v>
+        <v>2616.906531962235</v>
       </c>
       <c r="AC12" t="n">
-        <v>1995.776602615053</v>
+        <v>2367.152645403143</v>
       </c>
       <c r="AD12" t="n">
-        <v>1612539.21303714</v>
+        <v>1912602.07127171</v>
       </c>
       <c r="AE12" t="n">
-        <v>2206347.291486669</v>
+        <v>2616906.531962235</v>
       </c>
       <c r="AF12" t="n">
         <v>2.834917850814732e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.5787037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1995776.602615053</v>
+        <v>2367152.645403143</v>
       </c>
     </row>
     <row r="13">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1594.377098316159</v>
+        <v>1894.338471324244</v>
       </c>
       <c r="AB13" t="n">
-        <v>2181.497084869472</v>
+        <v>2591.917468780947</v>
       </c>
       <c r="AC13" t="n">
-        <v>1973.298064839917</v>
+        <v>2344.548503339508</v>
       </c>
       <c r="AD13" t="n">
-        <v>1594377.098316159</v>
+        <v>1894338.471324244</v>
       </c>
       <c r="AE13" t="n">
-        <v>2181497.084869471</v>
+        <v>2591917.468780947</v>
       </c>
       <c r="AF13" t="n">
         <v>2.84322704162629e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.40509259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>1973298.064839917</v>
+        <v>2344548.503339508</v>
       </c>
     </row>
     <row r="14">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1583.43036041392</v>
+        <v>1883.391733422005</v>
       </c>
       <c r="AB14" t="n">
-        <v>2166.519275135636</v>
+        <v>2576.939659047112</v>
       </c>
       <c r="AC14" t="n">
-        <v>1959.74971624559</v>
+        <v>2331.000154745182</v>
       </c>
       <c r="AD14" t="n">
-        <v>1583430.36041392</v>
+        <v>1883391.733422005</v>
       </c>
       <c r="AE14" t="n">
-        <v>2166519.275135636</v>
+        <v>2576939.659047112</v>
       </c>
       <c r="AF14" t="n">
         <v>2.848568664290863e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>61</v>
+        <v>60.28935185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>1959749.71624559</v>
+        <v>2331000.154745182</v>
       </c>
     </row>
     <row r="15">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1586.415404546301</v>
+        <v>1886.376777554387</v>
       </c>
       <c r="AB15" t="n">
-        <v>2170.603544208414</v>
+        <v>2581.02392811989</v>
       </c>
       <c r="AC15" t="n">
-        <v>1963.44418841037</v>
+        <v>2334.694626909961</v>
       </c>
       <c r="AD15" t="n">
-        <v>1586415.404546301</v>
+        <v>1886376.777554387</v>
       </c>
       <c r="AE15" t="n">
-        <v>2170603.544208414</v>
+        <v>2581023.928119889</v>
       </c>
       <c r="AF15" t="n">
         <v>2.84723325862472e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>61</v>
+        <v>60.3125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1963444.18841037</v>
+        <v>2334694.626909961</v>
       </c>
     </row>
     <row r="16">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1590.776508799705</v>
+        <v>1890.737881807791</v>
       </c>
       <c r="AB16" t="n">
-        <v>2176.570599446261</v>
+        <v>2586.990983357737</v>
       </c>
       <c r="AC16" t="n">
-        <v>1968.841756271132</v>
+        <v>2340.092194770723</v>
       </c>
       <c r="AD16" t="n">
-        <v>1590776.508799705</v>
+        <v>1890737.881807791</v>
       </c>
       <c r="AE16" t="n">
-        <v>2176570.599446261</v>
+        <v>2586990.983357737</v>
       </c>
       <c r="AF16" t="n">
         <v>2.84723325862472e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>61</v>
+        <v>60.3125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1968841.756271132</v>
+        <v>2340092.194770723</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1789.537840717755</v>
+        <v>2144.910496182097</v>
       </c>
       <c r="AB2" t="n">
-        <v>2448.524622507635</v>
+        <v>2934.761167649014</v>
       </c>
       <c r="AC2" t="n">
-        <v>2214.840869061397</v>
+        <v>2654.67168077176</v>
       </c>
       <c r="AD2" t="n">
-        <v>1789537.840717755</v>
+        <v>2144910.496182097</v>
       </c>
       <c r="AE2" t="n">
-        <v>2448524.622507636</v>
+        <v>2934761.167649014</v>
       </c>
       <c r="AF2" t="n">
         <v>3.217776218584955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.49074074074075</v>
       </c>
       <c r="AH2" t="n">
-        <v>2214840.869061397</v>
+        <v>2654671.68077176</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1440.477191034651</v>
+        <v>1758.461073929011</v>
       </c>
       <c r="AB3" t="n">
-        <v>1970.924442142189</v>
+        <v>2406.004019177086</v>
       </c>
       <c r="AC3" t="n">
-        <v>1782.822179593966</v>
+        <v>2176.378372434674</v>
       </c>
       <c r="AD3" t="n">
-        <v>1440477.191034651</v>
+        <v>1758461.073929011</v>
       </c>
       <c r="AE3" t="n">
-        <v>1970924.442142189</v>
+        <v>2406004.019177086</v>
       </c>
       <c r="AF3" t="n">
         <v>3.69204458059561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.91898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>1782822.179593966</v>
+        <v>2176378.372434674</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1328.280375626039</v>
+        <v>1627.520140652022</v>
       </c>
       <c r="AB4" t="n">
-        <v>1817.411809525968</v>
+        <v>2226.844857561233</v>
       </c>
       <c r="AC4" t="n">
-        <v>1643.960577178304</v>
+        <v>2014.317909751976</v>
       </c>
       <c r="AD4" t="n">
-        <v>1328280.375626039</v>
+        <v>1627520.140652022</v>
       </c>
       <c r="AE4" t="n">
-        <v>1817411.809525968</v>
+        <v>2226844.857561233</v>
       </c>
       <c r="AF4" t="n">
         <v>3.861869932931303e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.07175925925927</v>
       </c>
       <c r="AH4" t="n">
-        <v>1643960.577178304</v>
+        <v>2014317.909751975</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1282.201205389468</v>
+        <v>1572.119654094505</v>
       </c>
       <c r="AB5" t="n">
-        <v>1754.364255938773</v>
+        <v>2151.043467756267</v>
       </c>
       <c r="AC5" t="n">
-        <v>1586.930193617673</v>
+        <v>1945.750898202076</v>
       </c>
       <c r="AD5" t="n">
-        <v>1282201.205389468</v>
+        <v>1572119.654094505</v>
       </c>
       <c r="AE5" t="n">
-        <v>1754364.255938773</v>
+        <v>2151043.467756267</v>
       </c>
       <c r="AF5" t="n">
         <v>3.915095683602368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.22685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1586930.193617673</v>
+        <v>1945750.898202076</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1285.367075776044</v>
+        <v>1575.285524481081</v>
       </c>
       <c r="AB6" t="n">
-        <v>1758.69593947003</v>
+        <v>2155.375151287525</v>
       </c>
       <c r="AC6" t="n">
-        <v>1590.848467352264</v>
+        <v>1949.669171936667</v>
       </c>
       <c r="AD6" t="n">
-        <v>1285367.075776044</v>
+        <v>1575285.524481081</v>
       </c>
       <c r="AE6" t="n">
-        <v>1758695.93947003</v>
+        <v>2155375.151287525</v>
       </c>
       <c r="AF6" t="n">
         <v>3.917995140837368e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.18055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>1590848.467352264</v>
+        <v>1949669.171936667</v>
       </c>
     </row>
   </sheetData>
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2297.6999150153</v>
+        <v>2695.832209766148</v>
       </c>
       <c r="AB2" t="n">
-        <v>3143.814391090213</v>
+        <v>3688.556561125569</v>
       </c>
       <c r="AC2" t="n">
-        <v>2843.773157975655</v>
+        <v>3336.525899853253</v>
       </c>
       <c r="AD2" t="n">
-        <v>2297699.9150153</v>
+        <v>2695832.209766148</v>
       </c>
       <c r="AE2" t="n">
-        <v>3143814.391090213</v>
+        <v>3688556.561125569</v>
       </c>
       <c r="AF2" t="n">
         <v>2.528683571538522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.09490740740742</v>
       </c>
       <c r="AH2" t="n">
-        <v>2843773.157975655</v>
+        <v>3336525.899853253</v>
       </c>
     </row>
     <row r="3">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1743.392571576813</v>
+        <v>2075.146875428309</v>
       </c>
       <c r="AB3" t="n">
-        <v>2385.386629483403</v>
+        <v>2839.30750397995</v>
       </c>
       <c r="AC3" t="n">
-        <v>2157.728677476668</v>
+        <v>2568.327980793214</v>
       </c>
       <c r="AD3" t="n">
-        <v>1743392.571576813</v>
+        <v>2075146.875428309</v>
       </c>
       <c r="AE3" t="n">
-        <v>2385386.629483403</v>
+        <v>2839307.50397995</v>
       </c>
       <c r="AF3" t="n">
         <v>3.044320515163833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.18287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>2157728.677476668</v>
+        <v>2568327.980793213</v>
       </c>
     </row>
     <row r="4">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1585.627846105295</v>
+        <v>1898.417009699833</v>
       </c>
       <c r="AB4" t="n">
-        <v>2169.525972004803</v>
+        <v>2597.497904918841</v>
       </c>
       <c r="AC4" t="n">
-        <v>1962.469458185489</v>
+        <v>2349.596350484593</v>
       </c>
       <c r="AD4" t="n">
-        <v>1585627.846105295</v>
+        <v>1898417.009699833</v>
       </c>
       <c r="AE4" t="n">
-        <v>2169525.972004803</v>
+        <v>2597497.904918842</v>
       </c>
       <c r="AF4" t="n">
         <v>3.226721479221899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>64.32870370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1962469.45818549</v>
+        <v>2349596.350484593</v>
       </c>
     </row>
     <row r="5">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1496.318601875744</v>
+        <v>1799.625195341803</v>
       </c>
       <c r="AB5" t="n">
-        <v>2047.32912400415</v>
+        <v>2462.326586126935</v>
       </c>
       <c r="AC5" t="n">
-        <v>1851.934905853666</v>
+        <v>2227.325592644049</v>
       </c>
       <c r="AD5" t="n">
-        <v>1496318.601875744</v>
+        <v>1799625.195341803</v>
       </c>
       <c r="AE5" t="n">
-        <v>2047329.12400415</v>
+        <v>2462326.586126935</v>
       </c>
       <c r="AF5" t="n">
         <v>3.324827012496002e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>63</v>
+        <v>62.43055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1851934.905853666</v>
+        <v>2227325.592644049</v>
       </c>
     </row>
     <row r="6">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1438.918577957317</v>
+        <v>1732.776766713677</v>
       </c>
       <c r="AB6" t="n">
-        <v>1968.791878968624</v>
+        <v>2370.861616933404</v>
       </c>
       <c r="AC6" t="n">
-        <v>1780.893145256615</v>
+        <v>2144.589911738457</v>
       </c>
       <c r="AD6" t="n">
-        <v>1438918.577957317</v>
+        <v>1732776.766713677</v>
       </c>
       <c r="AE6" t="n">
-        <v>1968791.878968624</v>
+        <v>2370861.616933404</v>
       </c>
       <c r="AF6" t="n">
         <v>3.382219646221254e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.37731481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>1780893.145256615</v>
+        <v>2144589.911738457</v>
       </c>
     </row>
     <row r="7">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1390.508106778207</v>
+        <v>1693.847854633188</v>
       </c>
       <c r="AB7" t="n">
-        <v>1902.554536582109</v>
+        <v>2317.597362002488</v>
       </c>
       <c r="AC7" t="n">
-        <v>1720.977401862775</v>
+        <v>2096.409122541296</v>
       </c>
       <c r="AD7" t="n">
-        <v>1390508.106778207</v>
+        <v>1693847.854633189</v>
       </c>
       <c r="AE7" t="n">
-        <v>1902554.536582109</v>
+        <v>2317597.362002488</v>
       </c>
       <c r="AF7" t="n">
         <v>3.418090042299536e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.72916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1720977.401862775</v>
+        <v>2096409.122541296</v>
       </c>
     </row>
     <row r="8">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1385.943476689444</v>
+        <v>1679.868985253509</v>
       </c>
       <c r="AB8" t="n">
-        <v>1896.309008317397</v>
+        <v>2298.470856213017</v>
       </c>
       <c r="AC8" t="n">
-        <v>1715.327938049993</v>
+        <v>2079.108023620154</v>
       </c>
       <c r="AD8" t="n">
-        <v>1385943.476689444</v>
+        <v>1679868.985253509</v>
       </c>
       <c r="AE8" t="n">
-        <v>1896309.008317397</v>
+        <v>2298470.856213017</v>
       </c>
       <c r="AF8" t="n">
         <v>3.424367361613236e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1715327.938049993</v>
+        <v>2079108.023620154</v>
       </c>
     </row>
     <row r="9">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1389.832467488996</v>
+        <v>1683.75797605306</v>
       </c>
       <c r="AB9" t="n">
-        <v>1901.630097099508</v>
+        <v>2303.791944995129</v>
       </c>
       <c r="AC9" t="n">
-        <v>1720.141189586935</v>
+        <v>2083.921275157096</v>
       </c>
       <c r="AD9" t="n">
-        <v>1389832.467488996</v>
+        <v>1683757.97605306</v>
       </c>
       <c r="AE9" t="n">
-        <v>1901630.097099508</v>
+        <v>2303791.944995129</v>
       </c>
       <c r="AF9" t="n">
         <v>3.424367361613236e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1720141.189586935</v>
+        <v>2083921.275157096</v>
       </c>
     </row>
   </sheetData>
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1466.214774768287</v>
+        <v>1799.191198813104</v>
       </c>
       <c r="AB2" t="n">
-        <v>2006.139739668608</v>
+        <v>2461.732772929794</v>
       </c>
       <c r="AC2" t="n">
-        <v>1814.676578549444</v>
+        <v>2226.788452145021</v>
       </c>
       <c r="AD2" t="n">
-        <v>1466214.774768288</v>
+        <v>1799191.198813104</v>
       </c>
       <c r="AE2" t="n">
-        <v>2006139.739668608</v>
+        <v>2461732.772929794</v>
       </c>
       <c r="AF2" t="n">
         <v>3.935068113199262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.76851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1814676.578549444</v>
+        <v>2226788.452145021</v>
       </c>
     </row>
     <row r="3">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1221.792839258546</v>
+        <v>1526.981368311051</v>
       </c>
       <c r="AB3" t="n">
-        <v>1671.710864369421</v>
+        <v>2089.283273786719</v>
       </c>
       <c r="AC3" t="n">
-        <v>1512.165125734937</v>
+        <v>1889.885010464006</v>
       </c>
       <c r="AD3" t="n">
-        <v>1221792.839258546</v>
+        <v>1526981.368311051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1671710.864369421</v>
+        <v>2089283.273786719</v>
       </c>
       <c r="AF3" t="n">
         <v>4.378175427410861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.70833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1512165.125734936</v>
+        <v>1889885.010464006</v>
       </c>
     </row>
     <row r="4">
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1202.49034961244</v>
+        <v>1498.394481084844</v>
       </c>
       <c r="AB4" t="n">
-        <v>1645.300346469876</v>
+        <v>2050.169433519367</v>
       </c>
       <c r="AC4" t="n">
-        <v>1488.27519059633</v>
+        <v>1854.504140215151</v>
       </c>
       <c r="AD4" t="n">
-        <v>1202490.34961244</v>
+        <v>1498394.481084844</v>
       </c>
       <c r="AE4" t="n">
-        <v>1645300.346469876</v>
+        <v>2050169.433519368</v>
       </c>
       <c r="AF4" t="n">
         <v>4.424668486075462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.04861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1488275.19059633</v>
+        <v>1854504.140215151</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3733.896352997777</v>
+        <v>4248.367077779254</v>
       </c>
       <c r="AB2" t="n">
-        <v>5108.881718053034</v>
+        <v>5812.803260545606</v>
       </c>
       <c r="AC2" t="n">
-        <v>4621.297217242386</v>
+        <v>5258.037475679529</v>
       </c>
       <c r="AD2" t="n">
-        <v>3733896.352997777</v>
+        <v>4248367.077779254</v>
       </c>
       <c r="AE2" t="n">
-        <v>5108881.718053035</v>
+        <v>5812803.260545606</v>
       </c>
       <c r="AF2" t="n">
         <v>1.62907687270576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.8703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>4621297.217242386</v>
+        <v>5258037.475679529</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2436.197145211823</v>
+        <v>2814.811199047287</v>
       </c>
       <c r="AB3" t="n">
-        <v>3333.312411511678</v>
+        <v>3851.348863242585</v>
       </c>
       <c r="AC3" t="n">
-        <v>3015.185753290229</v>
+        <v>3483.781533136646</v>
       </c>
       <c r="AD3" t="n">
-        <v>2436197.145211823</v>
+        <v>2814811.199047287</v>
       </c>
       <c r="AE3" t="n">
-        <v>3333312.411511677</v>
+        <v>3851348.863242585</v>
       </c>
       <c r="AF3" t="n">
         <v>2.190587859493862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.50462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>3015185.753290229</v>
+        <v>3483781.533136646</v>
       </c>
     </row>
     <row r="4">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2127.074745565432</v>
+        <v>2476.527847885637</v>
       </c>
       <c r="AB4" t="n">
-        <v>2910.357506797509</v>
+        <v>3388.49465817502</v>
       </c>
       <c r="AC4" t="n">
-        <v>2632.59707106117</v>
+        <v>3065.10148378079</v>
       </c>
       <c r="AD4" t="n">
-        <v>2127074.745565432</v>
+        <v>2476527.847885637</v>
       </c>
       <c r="AE4" t="n">
-        <v>2910357.506797509</v>
+        <v>3388494.65817502</v>
       </c>
       <c r="AF4" t="n">
         <v>2.405751687850521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.66435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>2632597.07106117</v>
+        <v>3065101.48378079</v>
       </c>
     </row>
     <row r="5">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1988.650073789892</v>
+        <v>2318.719484131224</v>
       </c>
       <c r="AB5" t="n">
-        <v>2720.958764008698</v>
+        <v>3172.574292872566</v>
       </c>
       <c r="AC5" t="n">
-        <v>2461.274278461317</v>
+        <v>2869.788255096674</v>
       </c>
       <c r="AD5" t="n">
-        <v>1988650.073789892</v>
+        <v>2318719.484131224</v>
       </c>
       <c r="AE5" t="n">
-        <v>2720958.764008698</v>
+        <v>3172574.292872566</v>
       </c>
       <c r="AF5" t="n">
         <v>2.517822214868053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>67</v>
+        <v>66.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2461274.278461318</v>
+        <v>2869788.255096674</v>
       </c>
     </row>
     <row r="6">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1897.95615478296</v>
+        <v>2218.316636425464</v>
       </c>
       <c r="AB6" t="n">
-        <v>2596.867342890092</v>
+        <v>3035.198687180512</v>
       </c>
       <c r="AC6" t="n">
-        <v>2349.025968410868</v>
+        <v>2745.523584404002</v>
       </c>
       <c r="AD6" t="n">
-        <v>1897956.15478296</v>
+        <v>2218316.636425464</v>
       </c>
       <c r="AE6" t="n">
-        <v>2596867.342890092</v>
+        <v>3035198.687180513</v>
       </c>
       <c r="AF6" t="n">
         <v>2.591811929733633e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>64.65277777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>2349025.968410868</v>
+        <v>2745523.584404002</v>
       </c>
     </row>
     <row r="7">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1841.019390807353</v>
+        <v>2161.24422180459</v>
       </c>
       <c r="AB7" t="n">
-        <v>2518.96395054592</v>
+        <v>2957.109691638826</v>
       </c>
       <c r="AC7" t="n">
-        <v>2278.557566493926</v>
+        <v>2674.887292998335</v>
       </c>
       <c r="AD7" t="n">
-        <v>1841019.390807353</v>
+        <v>2161244.22180459</v>
       </c>
       <c r="AE7" t="n">
-        <v>2518963.95054592</v>
+        <v>2957109.691638826</v>
       </c>
       <c r="AF7" t="n">
         <v>2.639883525301877e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.4837962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>2278557.566493926</v>
+        <v>2674887.292998335</v>
       </c>
     </row>
     <row r="8">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1795.067922764917</v>
+        <v>2105.719475708593</v>
       </c>
       <c r="AB8" t="n">
-        <v>2456.091124734564</v>
+        <v>2881.138284451367</v>
       </c>
       <c r="AC8" t="n">
-        <v>2221.68523493544</v>
+        <v>2606.166490286308</v>
       </c>
       <c r="AD8" t="n">
-        <v>1795067.922764917</v>
+        <v>2105719.475708593</v>
       </c>
       <c r="AE8" t="n">
-        <v>2456091.124734564</v>
+        <v>2881138.284451367</v>
       </c>
       <c r="AF8" t="n">
         <v>2.674634076315065e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>63</v>
+        <v>62.66203703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>2221685.23493544</v>
+        <v>2606166.490286307</v>
       </c>
     </row>
     <row r="9">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1766.894395415065</v>
+        <v>2077.444463132256</v>
       </c>
       <c r="AB9" t="n">
-        <v>2417.542861686191</v>
+        <v>2842.451164838906</v>
       </c>
       <c r="AC9" t="n">
-        <v>2186.815964009578</v>
+        <v>2571.171615071946</v>
       </c>
       <c r="AD9" t="n">
-        <v>1766894.395415065</v>
+        <v>2077444.463132256</v>
       </c>
       <c r="AE9" t="n">
-        <v>2417542.861686192</v>
+        <v>2842451.164838906</v>
       </c>
       <c r="AF9" t="n">
         <v>2.698090698248968e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>63</v>
+        <v>62.10648148148147</v>
       </c>
       <c r="AH9" t="n">
-        <v>2186815.964009578</v>
+        <v>2571171.615071946</v>
       </c>
     </row>
     <row r="10">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1728.176366369781</v>
+        <v>2038.793753894676</v>
       </c>
       <c r="AB10" t="n">
-        <v>2364.567146227544</v>
+        <v>2789.5675593111</v>
       </c>
       <c r="AC10" t="n">
-        <v>2138.89617648242</v>
+        <v>2523.335146633108</v>
       </c>
       <c r="AD10" t="n">
-        <v>1728176.366369781</v>
+        <v>2038793.753894676</v>
       </c>
       <c r="AE10" t="n">
-        <v>2364567.146227544</v>
+        <v>2789567.5593111</v>
       </c>
       <c r="AF10" t="n">
         <v>2.72183690810798e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.57407407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>2138896.17648242</v>
+        <v>2523335.146633108</v>
       </c>
     </row>
     <row r="11">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1701.800098462834</v>
+        <v>2002.675402899978</v>
       </c>
       <c r="AB11" t="n">
-        <v>2328.477972838445</v>
+        <v>2740.148838050969</v>
       </c>
       <c r="AC11" t="n">
-        <v>2106.251303150103</v>
+        <v>2478.632878770431</v>
       </c>
       <c r="AD11" t="n">
-        <v>1701800.098462834</v>
+        <v>2002675.402899978</v>
       </c>
       <c r="AE11" t="n">
-        <v>2328477.972838445</v>
+        <v>2740148.838050968</v>
       </c>
       <c r="AF11" t="n">
         <v>2.73761945002647e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>62</v>
+        <v>61.21527777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>2106251.303150103</v>
+        <v>2478632.878770432</v>
       </c>
     </row>
     <row r="12">
@@ -12898,28 +12898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1670.317156311217</v>
+        <v>1980.900378417331</v>
       </c>
       <c r="AB12" t="n">
-        <v>2285.401622457221</v>
+        <v>2710.355288907529</v>
       </c>
       <c r="AC12" t="n">
-        <v>2067.286099191226</v>
+        <v>2451.682784141733</v>
       </c>
       <c r="AD12" t="n">
-        <v>1670317.156311217</v>
+        <v>1980900.378417331</v>
       </c>
       <c r="AE12" t="n">
-        <v>2285401.622457221</v>
+        <v>2710355.288907529</v>
       </c>
       <c r="AF12" t="n">
         <v>2.753257197982404e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.86805555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>2067286.099191226</v>
+        <v>2451682.784141733</v>
       </c>
     </row>
     <row r="13">
@@ -13004,28 +13004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1648.921483855198</v>
+        <v>1949.864108100047</v>
       </c>
       <c r="AB13" t="n">
-        <v>2256.127119492445</v>
+        <v>2667.89009463581</v>
       </c>
       <c r="AC13" t="n">
-        <v>2040.805513702385</v>
+        <v>2413.270408411032</v>
       </c>
       <c r="AD13" t="n">
-        <v>1648921.483855198</v>
+        <v>1949864.108100047</v>
       </c>
       <c r="AE13" t="n">
-        <v>2256127.119492445</v>
+        <v>2667890.09463581</v>
       </c>
       <c r="AF13" t="n">
         <v>2.764406333099135e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2040805.513702385</v>
+        <v>2413270.408411032</v>
       </c>
     </row>
     <row r="14">
@@ -13110,28 +13110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1629.038234414967</v>
+        <v>1929.879373433331</v>
       </c>
       <c r="AB14" t="n">
-        <v>2228.921980421265</v>
+        <v>2640.54609900054</v>
       </c>
       <c r="AC14" t="n">
-        <v>2016.196794921506</v>
+        <v>2388.536085341654</v>
       </c>
       <c r="AD14" t="n">
-        <v>1629038.234414967</v>
+        <v>1929879.373433331</v>
       </c>
       <c r="AE14" t="n">
-        <v>2228921.980421265</v>
+        <v>2640546.099000541</v>
       </c>
       <c r="AF14" t="n">
         <v>2.773817940665207e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>61</v>
+        <v>60.41666666666668</v>
       </c>
       <c r="AH14" t="n">
-        <v>2016196.794921506</v>
+        <v>2388536.085341654</v>
       </c>
     </row>
     <row r="15">
@@ -13216,28 +13216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1618.388890107066</v>
+        <v>1919.23002912543</v>
       </c>
       <c r="AB15" t="n">
-        <v>2214.351077723281</v>
+        <v>2625.975196302557</v>
       </c>
       <c r="AC15" t="n">
-        <v>2003.016518726627</v>
+        <v>2375.355809146776</v>
       </c>
       <c r="AD15" t="n">
-        <v>1618388.890107066</v>
+        <v>1919230.02912543</v>
       </c>
       <c r="AE15" t="n">
-        <v>2214351.077723281</v>
+        <v>2625975.196302557</v>
       </c>
       <c r="AF15" t="n">
         <v>2.779464905204851e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>61</v>
+        <v>60.28935185185185</v>
       </c>
       <c r="AH15" t="n">
-        <v>2003016.518726627</v>
+        <v>2375355.809146776</v>
       </c>
     </row>
     <row r="16">
@@ -13322,28 +13322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1613.580334793992</v>
+        <v>1914.421473812356</v>
       </c>
       <c r="AB16" t="n">
-        <v>2207.771800205446</v>
+        <v>2619.395918784721</v>
       </c>
       <c r="AC16" t="n">
-        <v>1997.06515822102</v>
+        <v>2369.404448641169</v>
       </c>
       <c r="AD16" t="n">
-        <v>1613580.334793992</v>
+        <v>1914421.473812356</v>
       </c>
       <c r="AE16" t="n">
-        <v>2207771.800205446</v>
+        <v>2619395.918784721</v>
       </c>
       <c r="AF16" t="n">
         <v>2.78178160860573e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>61</v>
+        <v>60.24305555555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>1997065.15822102</v>
+        <v>2369404.448641168</v>
       </c>
     </row>
     <row r="17">
@@ -13428,28 +13428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1618.19791212516</v>
+        <v>1919.039051143523</v>
       </c>
       <c r="AB17" t="n">
-        <v>2214.089773223083</v>
+        <v>2625.713891802358</v>
       </c>
       <c r="AC17" t="n">
-        <v>2002.780152761185</v>
+        <v>2375.119443181334</v>
       </c>
       <c r="AD17" t="n">
-        <v>1618197.91212516</v>
+        <v>1919039.051143523</v>
       </c>
       <c r="AE17" t="n">
-        <v>2214089.773223083</v>
+        <v>2625713.891802358</v>
       </c>
       <c r="AF17" t="n">
         <v>2.781926402568284e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>61</v>
+        <v>60.24305555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>2002780.152761185</v>
+        <v>2375119.443181334</v>
       </c>
     </row>
   </sheetData>
@@ -13725,28 +13725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1299.30099468038</v>
+        <v>1611.643133800264</v>
       </c>
       <c r="AB2" t="n">
-        <v>1777.760942036061</v>
+        <v>2205.12123634255</v>
       </c>
       <c r="AC2" t="n">
-        <v>1608.093932831291</v>
+        <v>1994.66756045311</v>
       </c>
       <c r="AD2" t="n">
-        <v>1299300.99468038</v>
+        <v>1611643.133800264</v>
       </c>
       <c r="AE2" t="n">
-        <v>1777760.942036061</v>
+        <v>2205121.23634255</v>
       </c>
       <c r="AF2" t="n">
         <v>4.471022845323965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1608093.932831291</v>
+        <v>1994667.56045311</v>
       </c>
     </row>
     <row r="3">
@@ -13831,28 +13831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1148.750934105698</v>
+        <v>1451.902543832596</v>
       </c>
       <c r="AB3" t="n">
-        <v>1571.771707357862</v>
+        <v>1986.557113891328</v>
       </c>
       <c r="AC3" t="n">
-        <v>1421.764021603074</v>
+        <v>1796.96289109196</v>
       </c>
       <c r="AD3" t="n">
-        <v>1148750.934105698</v>
+        <v>1451902.543832596</v>
       </c>
       <c r="AE3" t="n">
-        <v>1571771.707357862</v>
+        <v>1986557.113891328</v>
       </c>
       <c r="AF3" t="n">
         <v>4.776773740005937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.89351851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>1421764.021603074</v>
+        <v>1796962.89109196</v>
       </c>
     </row>
     <row r="4">
@@ -13937,28 +13937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1154.176386016947</v>
+        <v>1457.327995743845</v>
       </c>
       <c r="AB4" t="n">
-        <v>1579.195050016879</v>
+        <v>1993.980456550345</v>
       </c>
       <c r="AC4" t="n">
-        <v>1428.47889085744</v>
+        <v>1803.677760346327</v>
       </c>
       <c r="AD4" t="n">
-        <v>1154176.386016947</v>
+        <v>1457327.995743845</v>
       </c>
       <c r="AE4" t="n">
-        <v>1579195.050016879</v>
+        <v>1993980.456550345</v>
       </c>
       <c r="AF4" t="n">
         <v>4.780926553516048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.83564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1428478.89085744</v>
+        <v>1803677.760346327</v>
       </c>
     </row>
   </sheetData>
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2850.274836604628</v>
+        <v>3291.207600004643</v>
       </c>
       <c r="AB2" t="n">
-        <v>3899.871776693812</v>
+        <v>4503.175436158374</v>
       </c>
       <c r="AC2" t="n">
-        <v>3527.673487830423</v>
+        <v>4073.398692777668</v>
       </c>
       <c r="AD2" t="n">
-        <v>2850274.836604629</v>
+        <v>3291207.600004643</v>
       </c>
       <c r="AE2" t="n">
-        <v>3899871.776693812</v>
+        <v>4503175.436158374</v>
       </c>
       <c r="AF2" t="n">
         <v>2.069038550263141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>3527673.487830423</v>
+        <v>4073398.692777668</v>
       </c>
     </row>
     <row r="3">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2028.627011020421</v>
+        <v>2383.331100175805</v>
       </c>
       <c r="AB3" t="n">
-        <v>2775.656973185505</v>
+        <v>3260.97875640809</v>
       </c>
       <c r="AC3" t="n">
-        <v>2510.752167323708</v>
+        <v>2949.755520708808</v>
       </c>
       <c r="AD3" t="n">
-        <v>2028627.011020421</v>
+        <v>2383331.100175805</v>
       </c>
       <c r="AE3" t="n">
-        <v>2775656.973185505</v>
+        <v>3260978.75640809</v>
       </c>
       <c r="AF3" t="n">
         <v>2.609208627172139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2510752.167323709</v>
+        <v>2949755.520708809</v>
       </c>
     </row>
     <row r="4">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1819.363055480682</v>
+        <v>2145.335978704064</v>
       </c>
       <c r="AB4" t="n">
-        <v>2489.332797141883</v>
+        <v>2935.343331606534</v>
       </c>
       <c r="AC4" t="n">
-        <v>2251.754368783185</v>
+        <v>2655.198283818246</v>
       </c>
       <c r="AD4" t="n">
-        <v>1819363.055480682</v>
+        <v>2145335.978704065</v>
       </c>
       <c r="AE4" t="n">
-        <v>2489332.797141883</v>
+        <v>2935343.331606534</v>
       </c>
       <c r="AF4" t="n">
         <v>2.804915408322263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>67</v>
+        <v>66.57407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>2251754.368783185</v>
+        <v>2655198.283818246</v>
       </c>
     </row>
     <row r="5">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1716.882719422696</v>
+        <v>2033.165713636001</v>
       </c>
       <c r="AB5" t="n">
-        <v>2349.114680234004</v>
+        <v>2781.867026337569</v>
       </c>
       <c r="AC5" t="n">
-        <v>2124.918472155632</v>
+        <v>2516.369541718804</v>
       </c>
       <c r="AD5" t="n">
-        <v>1716882.719422696</v>
+        <v>2033165.713636001</v>
       </c>
       <c r="AE5" t="n">
-        <v>2349114.680234004</v>
+        <v>2781867.026337569</v>
       </c>
       <c r="AF5" t="n">
         <v>2.910593843320888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.1550925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>2124918.472155632</v>
+        <v>2516369.541718804</v>
       </c>
     </row>
     <row r="6">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1643.398332044993</v>
+        <v>1959.714480647221</v>
       </c>
       <c r="AB6" t="n">
-        <v>2248.570099521462</v>
+        <v>2681.36780892262</v>
       </c>
       <c r="AC6" t="n">
-        <v>2033.969725111088</v>
+        <v>2425.461828562401</v>
       </c>
       <c r="AD6" t="n">
-        <v>1643398.332044993</v>
+        <v>1959714.480647221</v>
       </c>
       <c r="AE6" t="n">
-        <v>2248570.099521462</v>
+        <v>2681367.80892262</v>
       </c>
       <c r="AF6" t="n">
         <v>2.974484927686468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>63</v>
+        <v>62.77777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2033969.725111088</v>
+        <v>2425461.828562401</v>
       </c>
     </row>
     <row r="7">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1592.439017200353</v>
+        <v>1899.200887437769</v>
       </c>
       <c r="AB7" t="n">
-        <v>2178.845316784722</v>
+        <v>2598.570441022132</v>
       </c>
       <c r="AC7" t="n">
-        <v>1970.899377779396</v>
+        <v>2350.566525247499</v>
       </c>
       <c r="AD7" t="n">
-        <v>1592439.017200353</v>
+        <v>1899200.887437769</v>
       </c>
       <c r="AE7" t="n">
-        <v>2178845.316784722</v>
+        <v>2598570.441022132</v>
       </c>
       <c r="AF7" t="n">
         <v>3.018047030663001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>61.875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1970899.377779396</v>
+        <v>2350566.525247499</v>
       </c>
     </row>
     <row r="8">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1557.744943417839</v>
+        <v>1854.885215482738</v>
       </c>
       <c r="AB8" t="n">
-        <v>2131.375354440976</v>
+        <v>2537.935783583794</v>
       </c>
       <c r="AC8" t="n">
-        <v>1927.959882017226</v>
+        <v>2295.7187544138</v>
       </c>
       <c r="AD8" t="n">
-        <v>1557744.943417839</v>
+        <v>1854885.215482738</v>
       </c>
       <c r="AE8" t="n">
-        <v>2131375.354440975</v>
+        <v>2537935.783583794</v>
       </c>
       <c r="AF8" t="n">
         <v>3.051283301822873e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.2037037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1927959.882017226</v>
+        <v>2295718.7544138</v>
       </c>
     </row>
     <row r="9">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1515.341732583827</v>
+        <v>1822.069437402462</v>
       </c>
       <c r="AB9" t="n">
-        <v>2073.357410680245</v>
+        <v>2493.035788284407</v>
       </c>
       <c r="AC9" t="n">
-        <v>1875.479089380324</v>
+        <v>2255.103951648246</v>
       </c>
       <c r="AD9" t="n">
-        <v>1515341.732583827</v>
+        <v>1822069.437402462</v>
       </c>
       <c r="AE9" t="n">
-        <v>2073357.410680245</v>
+        <v>2493035.788284407</v>
       </c>
       <c r="AF9" t="n">
         <v>3.074516423410357e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.74074074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1875479.089380324</v>
+        <v>2255103.951648246</v>
       </c>
     </row>
     <row r="10">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1492.231474751834</v>
+        <v>1789.337581397953</v>
       </c>
       <c r="AB10" t="n">
-        <v>2041.736936361893</v>
+        <v>2448.250618871464</v>
       </c>
       <c r="AC10" t="n">
-        <v>1846.876428751302</v>
+        <v>2214.593015947696</v>
       </c>
       <c r="AD10" t="n">
-        <v>1492231.474751834</v>
+        <v>1789337.581397953</v>
       </c>
       <c r="AE10" t="n">
-        <v>2041736.936361893</v>
+        <v>2448250.618871464</v>
       </c>
       <c r="AF10" t="n">
         <v>3.088391759913993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.46296296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>1846876.428751301</v>
+        <v>2214593.015947696</v>
       </c>
     </row>
     <row r="11">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1487.50091397183</v>
+        <v>1784.607020617948</v>
       </c>
       <c r="AB11" t="n">
-        <v>2035.264374405079</v>
+        <v>2441.778056914649</v>
       </c>
       <c r="AC11" t="n">
-        <v>1841.021599023347</v>
+        <v>2208.738186219742</v>
       </c>
       <c r="AD11" t="n">
-        <v>1487500.913971829</v>
+        <v>1784607.020617948</v>
       </c>
       <c r="AE11" t="n">
-        <v>2035264.374405079</v>
+        <v>2441778.056914649</v>
       </c>
       <c r="AF11" t="n">
         <v>3.093393334700187e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.37037037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1841021.599023347</v>
+        <v>2208738.186219742</v>
       </c>
     </row>
     <row r="12">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1492.030057815377</v>
+        <v>1789.136164461495</v>
       </c>
       <c r="AB12" t="n">
-        <v>2041.461348823545</v>
+        <v>2447.975031333115</v>
       </c>
       <c r="AC12" t="n">
-        <v>1846.627142900823</v>
+        <v>2214.343730097217</v>
       </c>
       <c r="AD12" t="n">
-        <v>1492030.057815377</v>
+        <v>1789136.164461495</v>
       </c>
       <c r="AE12" t="n">
-        <v>2041461.348823545</v>
+        <v>2447975.031333115</v>
       </c>
       <c r="AF12" t="n">
         <v>3.092909311333781e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.37037037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1846627.142900823</v>
+        <v>2214343.730097217</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3268.485598614491</v>
+        <v>3741.253379207293</v>
       </c>
       <c r="AB2" t="n">
-        <v>4472.086191432411</v>
+        <v>5118.947925881984</v>
       </c>
       <c r="AC2" t="n">
-        <v>4045.276561934324</v>
+        <v>4630.402720324151</v>
       </c>
       <c r="AD2" t="n">
-        <v>3268485.598614491</v>
+        <v>3741253.379207293</v>
       </c>
       <c r="AE2" t="n">
-        <v>4472086.191432412</v>
+        <v>5118947.925881984</v>
       </c>
       <c r="AF2" t="n">
         <v>1.83085233932648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.27314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>4045276.561934324</v>
+        <v>4630402.720324151</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2223.048472695957</v>
+        <v>2599.304337924601</v>
       </c>
       <c r="AB3" t="n">
-        <v>3041.672994319683</v>
+        <v>3556.482868362803</v>
       </c>
       <c r="AC3" t="n">
-        <v>2751.379992756557</v>
+        <v>3217.057134961179</v>
       </c>
       <c r="AD3" t="n">
-        <v>2223048.472695956</v>
+        <v>2599304.337924602</v>
       </c>
       <c r="AE3" t="n">
-        <v>3041672.994319683</v>
+        <v>3556482.868362803</v>
       </c>
       <c r="AF3" t="n">
         <v>2.38367166986675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.94675925925927</v>
       </c>
       <c r="AH3" t="n">
-        <v>2751379.992756557</v>
+        <v>3217057.134961179</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1976.100505318767</v>
+        <v>2313.753019843552</v>
       </c>
       <c r="AB4" t="n">
-        <v>2703.787890778618</v>
+        <v>3165.778957329231</v>
       </c>
       <c r="AC4" t="n">
-        <v>2445.742169272845</v>
+        <v>2863.641456840282</v>
       </c>
       <c r="AD4" t="n">
-        <v>1976100.505318767</v>
+        <v>2313753.019843552</v>
       </c>
       <c r="AE4" t="n">
-        <v>2703787.890778618</v>
+        <v>3165778.957329231</v>
       </c>
       <c r="AF4" t="n">
         <v>2.590483970382917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.04398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>2445742.169272845</v>
+        <v>2863641.456840282</v>
       </c>
     </row>
     <row r="5">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1850.792228454437</v>
+        <v>2169.17672753114</v>
       </c>
       <c r="AB5" t="n">
-        <v>2532.335578161828</v>
+        <v>2967.963295931346</v>
       </c>
       <c r="AC5" t="n">
-        <v>2290.653024737369</v>
+        <v>2684.705044530306</v>
       </c>
       <c r="AD5" t="n">
-        <v>1850792.228454437</v>
+        <v>2169176.72753114</v>
       </c>
       <c r="AE5" t="n">
-        <v>2532335.578161828</v>
+        <v>2967963.295931346</v>
       </c>
       <c r="AF5" t="n">
         <v>2.700286377357995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>66</v>
+        <v>65.27777777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>2290653.024737369</v>
+        <v>2684705.044530306</v>
       </c>
     </row>
     <row r="6">
@@ -16015,28 +16015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1773.36701063959</v>
+        <v>2091.784664105217</v>
       </c>
       <c r="AB6" t="n">
-        <v>2426.398979388017</v>
+        <v>2862.072060455128</v>
       </c>
       <c r="AC6" t="n">
-        <v>2194.82686626758</v>
+        <v>2588.919919948656</v>
       </c>
       <c r="AD6" t="n">
-        <v>1773367.01063959</v>
+        <v>2091784.664105217</v>
       </c>
       <c r="AE6" t="n">
-        <v>2426398.979388017</v>
+        <v>2862072.060455129</v>
       </c>
       <c r="AF6" t="n">
         <v>2.766533321926871e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.71527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2194826.86626758</v>
+        <v>2588919.919948656</v>
       </c>
     </row>
     <row r="7">
@@ -16121,28 +16121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1719.058699445199</v>
+        <v>2027.859427896177</v>
       </c>
       <c r="AB7" t="n">
-        <v>2352.091952098257</v>
+        <v>2774.606732091537</v>
       </c>
       <c r="AC7" t="n">
-        <v>2127.611597371787</v>
+        <v>2509.802159765727</v>
       </c>
       <c r="AD7" t="n">
-        <v>1719058.699445199</v>
+        <v>2027859.427896177</v>
       </c>
       <c r="AE7" t="n">
-        <v>2352091.952098257</v>
+        <v>2774606.732091537</v>
       </c>
       <c r="AF7" t="n">
         <v>2.812677745385191e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>63</v>
+        <v>62.66203703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>2127611.597371786</v>
+        <v>2509802.159765727</v>
       </c>
     </row>
     <row r="8">
@@ -16227,28 +16227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1672.823132437761</v>
+        <v>1981.589695469958</v>
       </c>
       <c r="AB8" t="n">
-        <v>2288.830409549423</v>
+        <v>2711.298442909456</v>
       </c>
       <c r="AC8" t="n">
-        <v>2070.387647655681</v>
+        <v>2452.535924849441</v>
       </c>
       <c r="AD8" t="n">
-        <v>1672823.132437761</v>
+        <v>1981589.695469958</v>
       </c>
       <c r="AE8" t="n">
-        <v>2288830.409549423</v>
+        <v>2711298.442909456</v>
       </c>
       <c r="AF8" t="n">
         <v>2.848009449155258e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.88657407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>2070387.647655681</v>
+        <v>2452535.924849441</v>
       </c>
     </row>
     <row r="9">
@@ -16333,28 +16333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1644.013249717558</v>
+        <v>1952.678327523269</v>
       </c>
       <c r="AB9" t="n">
-        <v>2249.411457009318</v>
+        <v>2671.740633805261</v>
       </c>
       <c r="AC9" t="n">
-        <v>2034.730784621157</v>
+        <v>2416.753457526417</v>
       </c>
       <c r="AD9" t="n">
-        <v>1644013.249717558</v>
+        <v>1952678.327523269</v>
       </c>
       <c r="AE9" t="n">
-        <v>2249411.457009318</v>
+        <v>2671740.633805261</v>
       </c>
       <c r="AF9" t="n">
         <v>2.871462390450905e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.38888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2034730.784621157</v>
+        <v>2416753.457526417</v>
       </c>
     </row>
     <row r="10">
@@ -16439,28 +16439,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1604.459932928979</v>
+        <v>1913.192330542395</v>
       </c>
       <c r="AB10" t="n">
-        <v>2195.292864010001</v>
+        <v>2617.714150736786</v>
       </c>
       <c r="AC10" t="n">
-        <v>1985.777194181772</v>
+        <v>2367.883186175352</v>
       </c>
       <c r="AD10" t="n">
-        <v>1604459.932928979</v>
+        <v>1913192.330542395</v>
       </c>
       <c r="AE10" t="n">
-        <v>2195292.864010001</v>
+        <v>2617714.150736785</v>
       </c>
       <c r="AF10" t="n">
         <v>2.891412619734866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.96064814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>1985777.194181772</v>
+        <v>2367883.186175352</v>
       </c>
     </row>
     <row r="11">
@@ -16545,28 +16545,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1580.690722802686</v>
+        <v>1879.840360820234</v>
       </c>
       <c r="AB11" t="n">
-        <v>2162.770782091666</v>
+        <v>2572.080514377867</v>
       </c>
       <c r="AC11" t="n">
-        <v>1956.358974116694</v>
+        <v>2326.604760023317</v>
       </c>
       <c r="AD11" t="n">
-        <v>1580690.722802687</v>
+        <v>1879840.360820234</v>
       </c>
       <c r="AE11" t="n">
-        <v>2162770.782091666</v>
+        <v>2572080.514377867</v>
       </c>
       <c r="AF11" t="n">
         <v>2.907860137007138e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.61342592592592</v>
       </c>
       <c r="AH11" t="n">
-        <v>1956358.974116694</v>
+        <v>2326604.760023317</v>
       </c>
     </row>
     <row r="12">
@@ -16651,28 +16651,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1559.240517231698</v>
+        <v>1858.288670022761</v>
       </c>
       <c r="AB12" t="n">
-        <v>2133.421664513157</v>
+        <v>2542.592540235269</v>
       </c>
       <c r="AC12" t="n">
-        <v>1929.810895128133</v>
+        <v>2299.931076746258</v>
       </c>
       <c r="AD12" t="n">
-        <v>1559240.517231698</v>
+        <v>1858288.670022761</v>
       </c>
       <c r="AE12" t="n">
-        <v>2133421.664513157</v>
+        <v>2542592.540235269</v>
       </c>
       <c r="AF12" t="n">
         <v>2.916388479296464e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.43981481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>1929810.895128133</v>
+        <v>2299931.076746257</v>
       </c>
     </row>
     <row r="13">
@@ -16757,28 +16757,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1554.281394757469</v>
+        <v>1853.329547548532</v>
       </c>
       <c r="AB13" t="n">
-        <v>2126.636374362875</v>
+        <v>2535.807250084987</v>
       </c>
       <c r="AC13" t="n">
-        <v>1923.673183546578</v>
+        <v>2293.793365164703</v>
       </c>
       <c r="AD13" t="n">
-        <v>1554281.394757469</v>
+        <v>1853329.547548532</v>
       </c>
       <c r="AE13" t="n">
-        <v>2126636.374362875</v>
+        <v>2535807.250084986</v>
       </c>
       <c r="AF13" t="n">
         <v>2.922327860533674e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1923673.183546579</v>
+        <v>2293793.365164703</v>
       </c>
     </row>
     <row r="14">
@@ -16863,28 +16863,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1557.510895182198</v>
+        <v>1856.559047973261</v>
       </c>
       <c r="AB14" t="n">
-        <v>2131.055119319492</v>
+        <v>2540.225995041604</v>
       </c>
       <c r="AC14" t="n">
-        <v>1927.670209686284</v>
+        <v>2297.790391304409</v>
       </c>
       <c r="AD14" t="n">
-        <v>1557510.895182198</v>
+        <v>1856559.047973261</v>
       </c>
       <c r="AE14" t="n">
-        <v>2131055.119319492</v>
+        <v>2540225.995041604</v>
       </c>
       <c r="AF14" t="n">
         <v>2.920957234094318e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>61</v>
+        <v>60.34722222222223</v>
       </c>
       <c r="AH14" t="n">
-        <v>1927670.209686284</v>
+        <v>2297790.391304409</v>
       </c>
     </row>
     <row r="15">
@@ -16969,28 +16969,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1560.386325668488</v>
+        <v>1859.43447845955</v>
       </c>
       <c r="AB15" t="n">
-        <v>2134.989410165874</v>
+        <v>2544.160285887986</v>
       </c>
       <c r="AC15" t="n">
-        <v>1931.229017336099</v>
+        <v>2301.349198954224</v>
       </c>
       <c r="AD15" t="n">
-        <v>1560386.325668488</v>
+        <v>1859434.47845955</v>
       </c>
       <c r="AE15" t="n">
-        <v>2134989.410165874</v>
+        <v>2544160.285887985</v>
       </c>
       <c r="AF15" t="n">
         <v>2.921261817747508e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>61</v>
+        <v>60.33564814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>1931229.017336099</v>
+        <v>2301349.198954224</v>
       </c>
     </row>
   </sheetData>
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4255.986959414697</v>
+        <v>4812.331891415531</v>
       </c>
       <c r="AB2" t="n">
-        <v>5823.229118764671</v>
+        <v>6584.444798934413</v>
       </c>
       <c r="AC2" t="n">
-        <v>5267.46830462295</v>
+        <v>5956.034628650181</v>
       </c>
       <c r="AD2" t="n">
-        <v>4255986.959414696</v>
+        <v>4812331.891415531</v>
       </c>
       <c r="AE2" t="n">
-        <v>5823229.118764671</v>
+        <v>6584444.798934413</v>
       </c>
       <c r="AF2" t="n">
         <v>1.457510752348257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>109.9305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>5267468.30462295</v>
+        <v>5956034.628650181</v>
       </c>
     </row>
     <row r="3">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2653.364334753292</v>
+        <v>3043.776248597655</v>
       </c>
       <c r="AB3" t="n">
-        <v>3630.450140982559</v>
+        <v>4164.628945262494</v>
       </c>
       <c r="AC3" t="n">
-        <v>3283.965074895822</v>
+        <v>3767.16260381992</v>
       </c>
       <c r="AD3" t="n">
-        <v>2653364.334753292</v>
+        <v>3043776.248597655</v>
       </c>
       <c r="AE3" t="n">
-        <v>3630450.140982559</v>
+        <v>4164628.945262494</v>
       </c>
       <c r="AF3" t="n">
         <v>2.0260894624446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.08564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>3283965.074895822</v>
+        <v>3767162.60381992</v>
       </c>
     </row>
     <row r="4">
@@ -17478,28 +17478,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2289.309257066933</v>
+        <v>2650.364335143421</v>
       </c>
       <c r="AB4" t="n">
-        <v>3132.333922715554</v>
+        <v>3626.345409165692</v>
       </c>
       <c r="AC4" t="n">
-        <v>2833.388369389735</v>
+        <v>3280.252092922529</v>
       </c>
       <c r="AD4" t="n">
-        <v>2289309.257066933</v>
+        <v>2650364.335143421</v>
       </c>
       <c r="AE4" t="n">
-        <v>3132333.922715554</v>
+        <v>3626345.409165692</v>
       </c>
       <c r="AF4" t="n">
         <v>2.247457214439743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.29629629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>2833388.369389735</v>
+        <v>3280252.092922529</v>
       </c>
     </row>
     <row r="5">
@@ -17584,28 +17584,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2122.452435599112</v>
+        <v>2464.083328948545</v>
       </c>
       <c r="AB5" t="n">
-        <v>2904.033058379666</v>
+        <v>3371.467518351861</v>
       </c>
       <c r="AC5" t="n">
-        <v>2626.876219123907</v>
+        <v>3049.699390284614</v>
       </c>
       <c r="AD5" t="n">
-        <v>2122452.435599112</v>
+        <v>2464083.328948545</v>
       </c>
       <c r="AE5" t="n">
-        <v>2904033.058379666</v>
+        <v>3371467.518351861</v>
       </c>
       <c r="AF5" t="n">
         <v>2.364163290069452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>2626876.219123906</v>
+        <v>3049699.390284614</v>
       </c>
     </row>
     <row r="6">
@@ -17690,28 +17690,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2024.311729805375</v>
+        <v>2356.179788178037</v>
       </c>
       <c r="AB6" t="n">
-        <v>2769.752615050309</v>
+        <v>3223.829133501395</v>
       </c>
       <c r="AC6" t="n">
-        <v>2505.411312842117</v>
+        <v>2916.151405672507</v>
       </c>
       <c r="AD6" t="n">
-        <v>2024311.729805375</v>
+        <v>2356179.788178037</v>
       </c>
       <c r="AE6" t="n">
-        <v>2769752.615050308</v>
+        <v>3223829.133501395</v>
       </c>
       <c r="AF6" t="n">
         <v>2.439613837184745e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.68287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>2505411.312842117</v>
+        <v>2916151.405672507</v>
       </c>
     </row>
     <row r="7">
@@ -17796,28 +17796,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1963.06456449085</v>
+        <v>2285.102468079036</v>
       </c>
       <c r="AB7" t="n">
-        <v>2685.951541432742</v>
+        <v>3126.578008431882</v>
       </c>
       <c r="AC7" t="n">
-        <v>2429.608096075066</v>
+        <v>2828.18179148682</v>
       </c>
       <c r="AD7" t="n">
-        <v>1963064.564490851</v>
+        <v>2285102.468079037</v>
       </c>
       <c r="AE7" t="n">
-        <v>2685951.541432742</v>
+        <v>3126578.008431882</v>
       </c>
       <c r="AF7" t="n">
         <v>2.489314289321241e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>64.36342592592592</v>
       </c>
       <c r="AH7" t="n">
-        <v>2429608.096075065</v>
+        <v>2828181.79148682</v>
       </c>
     </row>
     <row r="8">
@@ -17902,28 +17902,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1913.216013872752</v>
+        <v>2235.219752042157</v>
       </c>
       <c r="AB8" t="n">
-        <v>2617.746555314215</v>
+        <v>3058.326275680103</v>
       </c>
       <c r="AC8" t="n">
-        <v>2367.912498105392</v>
+        <v>2766.443908316965</v>
       </c>
       <c r="AD8" t="n">
-        <v>1913216.013872752</v>
+        <v>2235219.752042157</v>
       </c>
       <c r="AE8" t="n">
-        <v>2617746.555314215</v>
+        <v>3058326.275680103</v>
       </c>
       <c r="AF8" t="n">
         <v>2.527247224935167e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.40277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2367912.498105392</v>
+        <v>2766443.908316966</v>
       </c>
     </row>
     <row r="9">
@@ -18008,28 +18008,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1870.696335117601</v>
+        <v>2183.072888955498</v>
       </c>
       <c r="AB9" t="n">
-        <v>2559.569255005581</v>
+        <v>2986.976637047527</v>
       </c>
       <c r="AC9" t="n">
-        <v>2315.28755768586</v>
+        <v>2701.903779055751</v>
       </c>
       <c r="AD9" t="n">
-        <v>1870696.335117601</v>
+        <v>2183072.888955499</v>
       </c>
       <c r="AE9" t="n">
-        <v>2559569.255005581</v>
+        <v>2986976.637047527</v>
       </c>
       <c r="AF9" t="n">
         <v>2.555627705960186e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>63</v>
+        <v>62.69675925925927</v>
       </c>
       <c r="AH9" t="n">
-        <v>2315287.55768586</v>
+        <v>2701903.779055751</v>
       </c>
     </row>
     <row r="10">
@@ -18114,28 +18114,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1844.452696733989</v>
+        <v>2156.727765345401</v>
       </c>
       <c r="AB10" t="n">
-        <v>2523.661551181511</v>
+        <v>2950.930076659367</v>
       </c>
       <c r="AC10" t="n">
-        <v>2282.80683471798</v>
+        <v>2669.297451799372</v>
       </c>
       <c r="AD10" t="n">
-        <v>1844452.696733989</v>
+        <v>2156727.765345401</v>
       </c>
       <c r="AE10" t="n">
-        <v>2523661.551181511</v>
+        <v>2950930.076659367</v>
       </c>
       <c r="AF10" t="n">
         <v>2.576255470217394e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>63</v>
+        <v>62.19907407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>2282806.83471798</v>
+        <v>2669297.451799372</v>
       </c>
     </row>
     <row r="11">
@@ -18220,28 +18220,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1811.206662609414</v>
+        <v>2123.54905102853</v>
       </c>
       <c r="AB11" t="n">
-        <v>2478.172860580756</v>
+        <v>2905.533495989455</v>
       </c>
       <c r="AC11" t="n">
-        <v>2241.659520904383</v>
+        <v>2628.233457074095</v>
       </c>
       <c r="AD11" t="n">
-        <v>1811206.662609414</v>
+        <v>2123549.05102853</v>
       </c>
       <c r="AE11" t="n">
-        <v>2478172.860580756</v>
+        <v>2905533.495989455</v>
       </c>
       <c r="AF11" t="n">
         <v>2.593283758832405e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>62</v>
+        <v>61.78240740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>2241659.520904383</v>
+        <v>2628233.457074095</v>
       </c>
     </row>
     <row r="12">
@@ -18326,28 +18326,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1789.289511819315</v>
+        <v>2101.530415011946</v>
       </c>
       <c r="AB12" t="n">
-        <v>2448.184847953291</v>
+        <v>2875.406626797901</v>
       </c>
       <c r="AC12" t="n">
-        <v>2214.533522113644</v>
+        <v>2600.981853994856</v>
       </c>
       <c r="AD12" t="n">
-        <v>1789289.511819315</v>
+        <v>2101530.415011946</v>
       </c>
       <c r="AE12" t="n">
-        <v>2448184.847953292</v>
+        <v>2875406.626797901</v>
       </c>
       <c r="AF12" t="n">
         <v>2.609066075109732e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>62</v>
+        <v>61.41203703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>2214533.522113644</v>
+        <v>2600981.853994856</v>
       </c>
     </row>
     <row r="13">
@@ -18432,28 +18432,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1767.965632437359</v>
+        <v>2070.512031490781</v>
       </c>
       <c r="AB13" t="n">
-        <v>2419.008575439736</v>
+        <v>2832.965906029741</v>
       </c>
       <c r="AC13" t="n">
-        <v>2188.141792099626</v>
+        <v>2562.591616050883</v>
       </c>
       <c r="AD13" t="n">
-        <v>1767965.632437359</v>
+        <v>2070512.031490781</v>
       </c>
       <c r="AE13" t="n">
-        <v>2419008.575439736</v>
+        <v>2832965.906029741</v>
       </c>
       <c r="AF13" t="n">
         <v>2.621941122599131e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>62</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>2188141.792099626</v>
+        <v>2562591.616050883</v>
       </c>
     </row>
     <row r="14">
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1738.884702471099</v>
+        <v>2051.192925471436</v>
       </c>
       <c r="AB14" t="n">
-        <v>2379.218764099816</v>
+        <v>2806.532652875267</v>
       </c>
       <c r="AC14" t="n">
-        <v>2152.149464508637</v>
+        <v>2538.681115478168</v>
       </c>
       <c r="AD14" t="n">
-        <v>1738884.702471099</v>
+        <v>2051192.925471435</v>
       </c>
       <c r="AE14" t="n">
-        <v>2379218.764099816</v>
+        <v>2806532.652875267</v>
       </c>
       <c r="AF14" t="n">
         <v>2.631908901300601e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>61</v>
+        <v>60.87962962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>2152149.464508637</v>
+        <v>2538681.115478168</v>
       </c>
     </row>
     <row r="15">
@@ -18644,28 +18644,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1719.241751293093</v>
+        <v>2021.855470154219</v>
       </c>
       <c r="AB15" t="n">
-        <v>2352.342411712222</v>
+        <v>2766.391852233069</v>
       </c>
       <c r="AC15" t="n">
-        <v>2127.838153471717</v>
+        <v>2502.371296511294</v>
       </c>
       <c r="AD15" t="n">
-        <v>1719241.751293093</v>
+        <v>2021855.470154219</v>
       </c>
       <c r="AE15" t="n">
-        <v>2352342.411712222</v>
+        <v>2766391.852233069</v>
       </c>
       <c r="AF15" t="n">
         <v>2.641876680002071e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>61</v>
+        <v>60.64814814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>2127838.153471717</v>
+        <v>2502371.296511294</v>
       </c>
     </row>
     <row r="16">
@@ -18750,28 +18750,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1703.858822424312</v>
+        <v>2006.472541285438</v>
       </c>
       <c r="AB16" t="n">
-        <v>2331.294809787031</v>
+        <v>2745.344250307878</v>
       </c>
       <c r="AC16" t="n">
-        <v>2108.799305133772</v>
+        <v>2483.332448173348</v>
       </c>
       <c r="AD16" t="n">
-        <v>1703858.822424312</v>
+        <v>2006472.541285438</v>
       </c>
       <c r="AE16" t="n">
-        <v>2331294.809787031</v>
+        <v>2745344.250307878</v>
       </c>
       <c r="AF16" t="n">
         <v>2.647968100319636e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>61</v>
+        <v>60.50925925925927</v>
       </c>
       <c r="AH16" t="n">
-        <v>2108799.305133772</v>
+        <v>2483332.448173348</v>
       </c>
     </row>
     <row r="17">
@@ -18856,28 +18856,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1685.558516133369</v>
+        <v>1988.070749768009</v>
       </c>
       <c r="AB17" t="n">
-        <v>2306.255523367229</v>
+        <v>2720.166107323986</v>
       </c>
       <c r="AC17" t="n">
-        <v>2086.149733067016</v>
+        <v>2460.557271818093</v>
       </c>
       <c r="AD17" t="n">
-        <v>1685558.516133368</v>
+        <v>1988070.749768009</v>
       </c>
       <c r="AE17" t="n">
-        <v>2306255.523367229</v>
+        <v>2720166.107323986</v>
       </c>
       <c r="AF17" t="n">
         <v>2.654059520637201e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>61</v>
+        <v>60.37037037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>2086149.733067016</v>
+        <v>2460557.271818093</v>
       </c>
     </row>
     <row r="18">
@@ -18962,28 +18962,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1680.575831713583</v>
+        <v>1983.088065348224</v>
       </c>
       <c r="AB18" t="n">
-        <v>2299.437994723555</v>
+        <v>2713.348578680313</v>
       </c>
       <c r="AC18" t="n">
-        <v>2079.982859788634</v>
+        <v>2454.390398539711</v>
       </c>
       <c r="AD18" t="n">
-        <v>1680575.831713583</v>
+        <v>1983088.065348224</v>
       </c>
       <c r="AE18" t="n">
-        <v>2299437.994723555</v>
+        <v>2713348.578680313</v>
       </c>
       <c r="AF18" t="n">
         <v>2.657520554908544e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>61</v>
+        <v>60.28935185185185</v>
       </c>
       <c r="AH18" t="n">
-        <v>2079982.859788634</v>
+        <v>2454390.398539711</v>
       </c>
     </row>
     <row r="19">
@@ -19068,28 +19068,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1682.953480641923</v>
+        <v>1985.465714276564</v>
       </c>
       <c r="AB19" t="n">
-        <v>2302.691198881779</v>
+        <v>2716.601782838536</v>
       </c>
       <c r="AC19" t="n">
-        <v>2082.925582707897</v>
+        <v>2457.333121458974</v>
       </c>
       <c r="AD19" t="n">
-        <v>1682953.480641923</v>
+        <v>1985465.714276564</v>
       </c>
       <c r="AE19" t="n">
-        <v>2302691.198881779</v>
+        <v>2716601.782838536</v>
       </c>
       <c r="AF19" t="n">
         <v>2.656966789425129e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>61</v>
+        <v>60.30092592592593</v>
       </c>
       <c r="AH19" t="n">
-        <v>2082925.582707897</v>
+        <v>2457333.121458974</v>
       </c>
     </row>
     <row r="20">
@@ -19174,28 +19174,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1686.533625865142</v>
+        <v>1989.045859499783</v>
       </c>
       <c r="AB20" t="n">
-        <v>2307.589711521047</v>
+        <v>2721.500295477804</v>
       </c>
       <c r="AC20" t="n">
-        <v>2087.356588175979</v>
+        <v>2461.764126927056</v>
       </c>
       <c r="AD20" t="n">
-        <v>1686533.625865142</v>
+        <v>1989045.859499783</v>
       </c>
       <c r="AE20" t="n">
-        <v>2307589.711521047</v>
+        <v>2721500.295477804</v>
       </c>
       <c r="AF20" t="n">
         <v>2.656274582570861e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>61</v>
+        <v>60.32407407407408</v>
       </c>
       <c r="AH20" t="n">
-        <v>2087356.588175979</v>
+        <v>2461764.126927056</v>
       </c>
     </row>
   </sheetData>
@@ -19471,28 +19471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2466.63447222073</v>
+        <v>2885.400623489455</v>
       </c>
       <c r="AB2" t="n">
-        <v>3374.958105125364</v>
+        <v>3947.932427949985</v>
       </c>
       <c r="AC2" t="n">
-        <v>3052.856840355522</v>
+        <v>3571.147297984252</v>
       </c>
       <c r="AD2" t="n">
-        <v>2466634.472220731</v>
+        <v>2885400.623489455</v>
       </c>
       <c r="AE2" t="n">
-        <v>3374958.105125364</v>
+        <v>3947932.427949985</v>
       </c>
       <c r="AF2" t="n">
         <v>2.359273045720133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.66435185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>3052856.840355522</v>
+        <v>3571147.297984252</v>
       </c>
     </row>
     <row r="3">
@@ -19577,28 +19577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1837.968772074046</v>
+        <v>2171.058256469772</v>
       </c>
       <c r="AB3" t="n">
-        <v>2514.789959411209</v>
+        <v>2970.537686832381</v>
       </c>
       <c r="AC3" t="n">
-        <v>2274.781935214878</v>
+        <v>2687.033739176927</v>
       </c>
       <c r="AD3" t="n">
-        <v>1837968.772074046</v>
+        <v>2171058.256469773</v>
       </c>
       <c r="AE3" t="n">
-        <v>2514789.959411209</v>
+        <v>2970537.686832381</v>
       </c>
       <c r="AF3" t="n">
         <v>2.882558771735014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.29398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>2274781.935214878</v>
+        <v>2687033.739176927</v>
       </c>
     </row>
     <row r="4">
@@ -19683,19 +19683,19 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1656.18585997479</v>
+        <v>1979.754591351454</v>
       </c>
       <c r="AB4" t="n">
-        <v>2266.066559380927</v>
+        <v>2708.787572495438</v>
       </c>
       <c r="AC4" t="n">
-        <v>2049.796347398002</v>
+        <v>2450.264688383709</v>
       </c>
       <c r="AD4" t="n">
-        <v>1656185.85997479</v>
+        <v>1979754.591351454</v>
       </c>
       <c r="AE4" t="n">
-        <v>2266066.559380927</v>
+        <v>2708787.572495438</v>
       </c>
       <c r="AF4" t="n">
         <v>3.07309552685389e-06</v>
@@ -19704,7 +19704,7 @@
         <v>65</v>
       </c>
       <c r="AH4" t="n">
-        <v>2049796.347398002</v>
+        <v>2450264.688383709</v>
       </c>
     </row>
     <row r="5">
@@ -19789,28 +19789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1576.454622219531</v>
+        <v>1880.98488064764</v>
       </c>
       <c r="AB5" t="n">
-        <v>2156.974762390224</v>
+        <v>2573.646496898375</v>
       </c>
       <c r="AC5" t="n">
-        <v>1951.116118400793</v>
+        <v>2328.021287369937</v>
       </c>
       <c r="AD5" t="n">
-        <v>1576454.622219531</v>
+        <v>1880984.88064764</v>
       </c>
       <c r="AE5" t="n">
-        <v>2156974.762390224</v>
+        <v>2573646.496898375</v>
       </c>
       <c r="AF5" t="n">
         <v>3.169917193177884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>64</v>
+        <v>63.00925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1951116.118400793</v>
+        <v>2328021.287369938</v>
       </c>
     </row>
     <row r="6">
@@ -19895,28 +19895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1506.51461803149</v>
+        <v>1811.078030848523</v>
       </c>
       <c r="AB6" t="n">
-        <v>2061.279763124928</v>
+        <v>2477.996860930672</v>
       </c>
       <c r="AC6" t="n">
-        <v>1864.554115556601</v>
+        <v>2241.500318413886</v>
       </c>
       <c r="AD6" t="n">
-        <v>1506514.61803149</v>
+        <v>1811078.030848523</v>
       </c>
       <c r="AE6" t="n">
-        <v>2061279.763124928</v>
+        <v>2477996.860930672</v>
       </c>
       <c r="AF6" t="n">
         <v>3.230150279714557e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.84027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1864554.115556601</v>
+        <v>2241500.318413886</v>
       </c>
     </row>
     <row r="7">
@@ -20001,28 +20001,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1464.52974028343</v>
+        <v>1759.540256722333</v>
       </c>
       <c r="AB7" t="n">
-        <v>2003.83420114795</v>
+        <v>2407.480604685093</v>
       </c>
       <c r="AC7" t="n">
-        <v>1812.591077389354</v>
+        <v>2177.714034694197</v>
       </c>
       <c r="AD7" t="n">
-        <v>1464529.74028343</v>
+        <v>1759540.256722332</v>
       </c>
       <c r="AE7" t="n">
-        <v>2003834.20114795</v>
+        <v>2407480.604685093</v>
       </c>
       <c r="AF7" t="n">
         <v>3.272434251638583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>61.04166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1812591.077389354</v>
+        <v>2177714.034694198</v>
       </c>
     </row>
     <row r="8">
@@ -20107,28 +20107,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1425.526707461221</v>
+        <v>1720.604543707828</v>
       </c>
       <c r="AB8" t="n">
-        <v>1950.468530948237</v>
+        <v>2354.207044416221</v>
       </c>
       <c r="AC8" t="n">
-        <v>1764.318551854313</v>
+        <v>2129.524828247475</v>
       </c>
       <c r="AD8" t="n">
-        <v>1425526.707461221</v>
+        <v>1720604.543707829</v>
       </c>
       <c r="AE8" t="n">
-        <v>1950468.530948237</v>
+        <v>2354207.044416221</v>
       </c>
       <c r="AF8" t="n">
         <v>3.297459459511986e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.5787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1764318.551854313</v>
+        <v>2129524.828247475</v>
       </c>
     </row>
     <row r="9">
@@ -20213,28 +20213,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1419.275635266234</v>
+        <v>1714.251986286356</v>
       </c>
       <c r="AB9" t="n">
-        <v>1941.915538193213</v>
+        <v>2345.515195097109</v>
       </c>
       <c r="AC9" t="n">
-        <v>1756.581844723628</v>
+        <v>2121.662516828292</v>
       </c>
       <c r="AD9" t="n">
-        <v>1419275.635266234</v>
+        <v>1714251.986286356</v>
       </c>
       <c r="AE9" t="n">
-        <v>1941915.538193214</v>
+        <v>2345515.195097109</v>
       </c>
       <c r="AF9" t="n">
         <v>3.302119325805654e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.48611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1756581.844723628</v>
+        <v>2121662.516828292</v>
       </c>
     </row>
     <row r="10">
@@ -20319,28 +20319,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1424.7145146951</v>
+        <v>1719.792350941707</v>
       </c>
       <c r="AB10" t="n">
-        <v>1949.357252974214</v>
+        <v>2353.095766442199</v>
       </c>
       <c r="AC10" t="n">
-        <v>1763.313332690442</v>
+        <v>2128.519609083605</v>
       </c>
       <c r="AD10" t="n">
-        <v>1424714.5146951</v>
+        <v>1719792.350941707</v>
       </c>
       <c r="AE10" t="n">
-        <v>1949357.252974214</v>
+        <v>2353095.766442199</v>
       </c>
       <c r="AF10" t="n">
         <v>3.301083799962617e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.50925925925927</v>
       </c>
       <c r="AH10" t="n">
-        <v>1763313.332690442</v>
+        <v>2128519.609083605</v>
       </c>
     </row>
   </sheetData>
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1949.17900537159</v>
+        <v>2325.113843861122</v>
       </c>
       <c r="AB2" t="n">
-        <v>2666.952706858135</v>
+        <v>3181.323337954255</v>
       </c>
       <c r="AC2" t="n">
-        <v>2412.422483607228</v>
+        <v>2877.702303595128</v>
       </c>
       <c r="AD2" t="n">
-        <v>1949179.00537159</v>
+        <v>2325113.843861123</v>
       </c>
       <c r="AE2" t="n">
-        <v>2666952.706858135</v>
+        <v>3181323.337954255</v>
       </c>
       <c r="AF2" t="n">
         <v>2.950333574581903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.99074074074075</v>
       </c>
       <c r="AH2" t="n">
-        <v>2412422.483607227</v>
+        <v>2877702.303595128</v>
       </c>
     </row>
     <row r="3">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1549.499140034774</v>
+        <v>1868.9952239235</v>
       </c>
       <c r="AB3" t="n">
-        <v>2120.093082473094</v>
+        <v>2557.241719622083</v>
       </c>
       <c r="AC3" t="n">
-        <v>1917.754374251191</v>
+        <v>2313.182159012646</v>
       </c>
       <c r="AD3" t="n">
-        <v>1549499.140034774</v>
+        <v>1868995.2239235</v>
       </c>
       <c r="AE3" t="n">
-        <v>2120093.082473095</v>
+        <v>2557241.719622083</v>
       </c>
       <c r="AF3" t="n">
         <v>3.44133627536705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.00694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1917754.374251192</v>
+        <v>2313182.159012646</v>
       </c>
     </row>
     <row r="4">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1411.185053385474</v>
+        <v>1721.313358294476</v>
       </c>
       <c r="AB4" t="n">
-        <v>1930.845647132676</v>
+        <v>2355.176875804365</v>
       </c>
       <c r="AC4" t="n">
-        <v>1746.568448529218</v>
+        <v>2130.402100289102</v>
       </c>
       <c r="AD4" t="n">
-        <v>1411185.053385474</v>
+        <v>1721313.358294476</v>
       </c>
       <c r="AE4" t="n">
-        <v>1930845.647132676</v>
+        <v>2355176.875804365</v>
       </c>
       <c r="AF4" t="n">
         <v>3.616189755143056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.81250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1746568.448529218</v>
+        <v>2130402.100289102</v>
       </c>
     </row>
     <row r="5">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1339.748676521498</v>
+        <v>1631.076125723064</v>
       </c>
       <c r="AB5" t="n">
-        <v>1833.103244756862</v>
+        <v>2231.710313214422</v>
       </c>
       <c r="AC5" t="n">
-        <v>1658.154443853829</v>
+        <v>2018.719013146334</v>
       </c>
       <c r="AD5" t="n">
-        <v>1339748.676521498</v>
+        <v>1631076.125723064</v>
       </c>
       <c r="AE5" t="n">
-        <v>1833103.244756862</v>
+        <v>2231710.313214422</v>
       </c>
       <c r="AF5" t="n">
         <v>3.704892081583858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.30787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1658154.443853829</v>
+        <v>2018719.013146334</v>
       </c>
     </row>
     <row r="6">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1311.204100391077</v>
+        <v>1611.931471931433</v>
       </c>
       <c r="AB6" t="n">
-        <v>1794.047296397399</v>
+        <v>2205.515753294196</v>
       </c>
       <c r="AC6" t="n">
-        <v>1622.825940390425</v>
+        <v>1995.024425260599</v>
       </c>
       <c r="AD6" t="n">
-        <v>1311204.100391077</v>
+        <v>1611931.471931433</v>
       </c>
       <c r="AE6" t="n">
-        <v>1794047.296397399</v>
+        <v>2205515.753294196</v>
       </c>
       <c r="AF6" t="n">
         <v>3.727263907279105e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1622825.940390425</v>
+        <v>1995024.425260599</v>
       </c>
     </row>
     <row r="7">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1314.141916916247</v>
+        <v>1614.869288456603</v>
       </c>
       <c r="AB7" t="n">
-        <v>1798.066946574453</v>
+        <v>2209.535403471251</v>
       </c>
       <c r="AC7" t="n">
-        <v>1626.461960796196</v>
+        <v>1998.66044566637</v>
       </c>
       <c r="AD7" t="n">
-        <v>1314141.916916247</v>
+        <v>1614869.288456602</v>
       </c>
       <c r="AE7" t="n">
-        <v>1798066.946574453</v>
+        <v>2209535.403471251</v>
       </c>
       <c r="AF7" t="n">
         <v>3.729030104044519e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.91435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>1626461.960796196</v>
+        <v>1998660.44566637</v>
       </c>
     </row>
   </sheetData>
@@ -39336,28 +39336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1634.211236890352</v>
+        <v>1978.396380698222</v>
       </c>
       <c r="AB2" t="n">
-        <v>2235.999910624849</v>
+        <v>2706.929208759661</v>
       </c>
       <c r="AC2" t="n">
-        <v>2022.599217400398</v>
+        <v>2448.583684274644</v>
       </c>
       <c r="AD2" t="n">
-        <v>1634211.236890352</v>
+        <v>1978396.380698222</v>
       </c>
       <c r="AE2" t="n">
-        <v>2235999.910624849</v>
+        <v>2706929.208759661</v>
       </c>
       <c r="AF2" t="n">
         <v>3.5352839703226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.15277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>2022599.217400398</v>
+        <v>2448583.684274644</v>
       </c>
     </row>
     <row r="3">
@@ -39442,28 +39442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1334.406533516426</v>
+        <v>1641.43512746139</v>
       </c>
       <c r="AB3" t="n">
-        <v>1825.793889018606</v>
+        <v>2245.883956399703</v>
       </c>
       <c r="AC3" t="n">
-        <v>1651.542682768488</v>
+        <v>2031.539943718845</v>
       </c>
       <c r="AD3" t="n">
-        <v>1334406.533516426</v>
+        <v>1641435.12746139</v>
       </c>
       <c r="AE3" t="n">
-        <v>1825793.889018606</v>
+        <v>2245883.956399703</v>
       </c>
       <c r="AF3" t="n">
         <v>3.995679719590345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.84259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1651542.682768488</v>
+        <v>2031539.943718845</v>
       </c>
     </row>
     <row r="4">
@@ -39548,28 +39548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1241.612980210988</v>
+        <v>1539.335606738301</v>
       </c>
       <c r="AB4" t="n">
-        <v>1698.829655623458</v>
+        <v>2106.186887833415</v>
       </c>
       <c r="AC4" t="n">
-        <v>1536.695737613151</v>
+        <v>1905.175367310457</v>
       </c>
       <c r="AD4" t="n">
-        <v>1241612.980210988</v>
+        <v>1539335.606738301</v>
       </c>
       <c r="AE4" t="n">
-        <v>1698829.655623458</v>
+        <v>2106186.887833416</v>
       </c>
       <c r="AF4" t="n">
         <v>4.137611199977338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.64351851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>1536695.737613151</v>
+        <v>1905175.367310456</v>
       </c>
     </row>
     <row r="5">
@@ -39654,28 +39654,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1241.136244183012</v>
+        <v>1538.858870710325</v>
       </c>
       <c r="AB5" t="n">
-        <v>1698.177364357873</v>
+        <v>2105.53459656783</v>
       </c>
       <c r="AC5" t="n">
-        <v>1536.105700110457</v>
+        <v>1904.585329807762</v>
       </c>
       <c r="AD5" t="n">
-        <v>1241136.244183013</v>
+        <v>1538858.870710325</v>
       </c>
       <c r="AE5" t="n">
-        <v>1698177.364357873</v>
+        <v>2105534.59656783</v>
       </c>
       <c r="AF5" t="n">
         <v>4.14598603888216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.52777777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>1536105.700110457</v>
+        <v>1904585.329807762</v>
       </c>
     </row>
   </sheetData>
@@ -39951,28 +39951,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1115.452914467184</v>
+        <v>1425.352743585266</v>
       </c>
       <c r="AB2" t="n">
-        <v>1526.211887883499</v>
+        <v>1950.23050589841</v>
       </c>
       <c r="AC2" t="n">
-        <v>1380.552367355735</v>
+        <v>1764.103243581172</v>
       </c>
       <c r="AD2" t="n">
-        <v>1115452.914467184</v>
+        <v>1425352.743585266</v>
       </c>
       <c r="AE2" t="n">
-        <v>1526211.887883499</v>
+        <v>1950230.50589841</v>
       </c>
       <c r="AF2" t="n">
         <v>5.202746014990619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.84953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1380552.367355735</v>
+        <v>1764103.243581172</v>
       </c>
     </row>
     <row r="3">
@@ -40057,28 +40057,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1110.634817883113</v>
+        <v>1411.383777160082</v>
       </c>
       <c r="AB3" t="n">
-        <v>1519.619555577754</v>
+        <v>1931.11754976817</v>
       </c>
       <c r="AC3" t="n">
-        <v>1374.589197992854</v>
+        <v>1746.814401158799</v>
       </c>
       <c r="AD3" t="n">
-        <v>1110634.817883113</v>
+        <v>1411383.777160082</v>
       </c>
       <c r="AE3" t="n">
-        <v>1519619.555577754</v>
+        <v>1931117.54976817</v>
       </c>
       <c r="AF3" t="n">
         <v>5.241805232090106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.36342592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>1374589.197992854</v>
+        <v>1746814.401158799</v>
       </c>
     </row>
   </sheetData>
@@ -40354,28 +40354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3053.64729603902</v>
+        <v>3515.258369201399</v>
       </c>
       <c r="AB2" t="n">
-        <v>4178.134947851649</v>
+        <v>4809.731582995722</v>
       </c>
       <c r="AC2" t="n">
-        <v>3779.37961247776</v>
+        <v>4350.697551215102</v>
       </c>
       <c r="AD2" t="n">
-        <v>3053647.29603902</v>
+        <v>3515258.369201398</v>
       </c>
       <c r="AE2" t="n">
-        <v>4178134.947851649</v>
+        <v>4809731.582995721</v>
       </c>
       <c r="AF2" t="n">
         <v>1.94499891430331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>94</v>
+        <v>93.18287037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>3779379.612477759</v>
+        <v>4350697.551215102</v>
       </c>
     </row>
     <row r="3">
@@ -40460,28 +40460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2126.214818700141</v>
+        <v>2491.688859748055</v>
       </c>
       <c r="AB3" t="n">
-        <v>2909.180916923121</v>
+        <v>3409.238623461819</v>
       </c>
       <c r="AC3" t="n">
-        <v>2631.53277327304</v>
+        <v>3083.865674134954</v>
       </c>
       <c r="AD3" t="n">
-        <v>2126214.818700141</v>
+        <v>2491688.859748055</v>
       </c>
       <c r="AE3" t="n">
-        <v>2909180.916923122</v>
+        <v>3409238.623461819</v>
       </c>
       <c r="AF3" t="n">
         <v>2.490556938410285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>73</v>
+        <v>72.76620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>2631532.77327304</v>
+        <v>3083865.674134954</v>
       </c>
     </row>
     <row r="4">
@@ -40566,28 +40566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1896.174471736606</v>
+        <v>2223.167783045508</v>
       </c>
       <c r="AB4" t="n">
-        <v>2594.429565543762</v>
+        <v>3041.83624000354</v>
       </c>
       <c r="AC4" t="n">
-        <v>2346.82084911303</v>
+        <v>2751.527658501464</v>
       </c>
       <c r="AD4" t="n">
-        <v>1896174.471736606</v>
+        <v>2223167.783045508</v>
       </c>
       <c r="AE4" t="n">
-        <v>2594429.565543762</v>
+        <v>3041836.24000354</v>
       </c>
       <c r="AF4" t="n">
         <v>2.694436544434188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>68</v>
+        <v>67.25694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2346820.84911303</v>
+        <v>2751527.658501464</v>
       </c>
     </row>
     <row r="5">
@@ -40672,28 +40672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1778.876661384176</v>
+        <v>2105.868961663218</v>
       </c>
       <c r="AB5" t="n">
-        <v>2433.937526605395</v>
+        <v>2881.34281772934</v>
       </c>
       <c r="AC5" t="n">
-        <v>2201.645945118949</v>
+        <v>2606.351503195295</v>
       </c>
       <c r="AD5" t="n">
-        <v>1778876.661384176</v>
+        <v>2105868.961663218</v>
       </c>
       <c r="AE5" t="n">
-        <v>2433937.526605395</v>
+        <v>2881342.81772934</v>
       </c>
       <c r="AF5" t="n">
         <v>2.801074034220885e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.69907407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>2201645.945118949</v>
+        <v>2606351.503195295</v>
       </c>
     </row>
     <row r="6">
@@ -40778,28 +40778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1712.670844902056</v>
+        <v>2020.423285826521</v>
       </c>
       <c r="AB6" t="n">
-        <v>2343.351807700075</v>
+        <v>2764.432274452399</v>
       </c>
       <c r="AC6" t="n">
-        <v>2119.705600088098</v>
+        <v>2500.598738083727</v>
       </c>
       <c r="AD6" t="n">
-        <v>1712670.844902056</v>
+        <v>2020423.285826521</v>
       </c>
       <c r="AE6" t="n">
-        <v>2343351.807700075</v>
+        <v>2764432.274452399</v>
       </c>
       <c r="AF6" t="n">
         <v>2.866371880389831e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.22916666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>2119705.600088098</v>
+        <v>2500598.738083727</v>
       </c>
     </row>
     <row r="7">
@@ -40884,28 +40884,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1662.078290353199</v>
+        <v>1969.796565858883</v>
       </c>
       <c r="AB7" t="n">
-        <v>2274.128842580348</v>
+        <v>2695.162562699425</v>
       </c>
       <c r="AC7" t="n">
-        <v>2057.089177604356</v>
+        <v>2437.940030399805</v>
       </c>
       <c r="AD7" t="n">
-        <v>1662078.290353199</v>
+        <v>1969796.565858884</v>
       </c>
       <c r="AE7" t="n">
-        <v>2274128.842580348</v>
+        <v>2695162.562699425</v>
       </c>
       <c r="AF7" t="n">
         <v>2.908964240480846e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>63</v>
+        <v>62.30324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>2057089.177604356</v>
+        <v>2437940.030399805</v>
       </c>
     </row>
     <row r="8">
@@ -40990,28 +40990,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1615.79172895461</v>
+        <v>1923.577324267999</v>
       </c>
       <c r="AB8" t="n">
-        <v>2210.797527255828</v>
+        <v>2631.923357305745</v>
       </c>
       <c r="AC8" t="n">
-        <v>1999.802114128348</v>
+        <v>2380.736286012117</v>
       </c>
       <c r="AD8" t="n">
-        <v>1615791.72895461</v>
+        <v>1923577.324267999</v>
       </c>
       <c r="AE8" t="n">
-        <v>2210797.527255828</v>
+        <v>2631923.357305746</v>
       </c>
       <c r="AF8" t="n">
         <v>2.944510070409745e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.55092592592592</v>
       </c>
       <c r="AH8" t="n">
-        <v>1999802.114128348</v>
+        <v>2380736.286012117</v>
       </c>
     </row>
     <row r="9">
@@ -41096,28 +41096,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1585.304079045109</v>
+        <v>1883.436084777358</v>
       </c>
       <c r="AB9" t="n">
-        <v>2169.082979629462</v>
+        <v>2577.000342528148</v>
       </c>
       <c r="AC9" t="n">
-        <v>1962.068744380708</v>
+        <v>2331.055046679958</v>
       </c>
       <c r="AD9" t="n">
-        <v>1585304.079045109</v>
+        <v>1883436.084777358</v>
       </c>
       <c r="AE9" t="n">
-        <v>2169082.979629463</v>
+        <v>2577000.342528149</v>
       </c>
       <c r="AF9" t="n">
         <v>2.966745787810201e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.08796296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1962068.744380708</v>
+        <v>2331055.046679958</v>
       </c>
     </row>
     <row r="10">
@@ -41202,28 +41202,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1541.444286381753</v>
+        <v>1839.643611921705</v>
       </c>
       <c r="AB10" t="n">
-        <v>2109.072076349967</v>
+        <v>2517.081549179495</v>
       </c>
       <c r="AC10" t="n">
-        <v>1907.785197484376</v>
+        <v>2276.854818871945</v>
       </c>
       <c r="AD10" t="n">
-        <v>1541444.286381753</v>
+        <v>1839643.611921705</v>
       </c>
       <c r="AE10" t="n">
-        <v>2109072.076349967</v>
+        <v>2517081.549179495</v>
       </c>
       <c r="AF10" t="n">
         <v>2.988981505210658e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.63657407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>1907785.197484376</v>
+        <v>2276854.818871945</v>
       </c>
     </row>
     <row r="11">
@@ -41308,28 +41308,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1522.241413568854</v>
+        <v>1820.339253882321</v>
       </c>
       <c r="AB11" t="n">
-        <v>2082.797858596402</v>
+        <v>2490.66847486184</v>
       </c>
       <c r="AC11" t="n">
-        <v>1884.018554197114</v>
+        <v>2252.962571296184</v>
       </c>
       <c r="AD11" t="n">
-        <v>1522241.413568854</v>
+        <v>1820339.253882321</v>
       </c>
       <c r="AE11" t="n">
-        <v>2082797.858596402</v>
+        <v>2490668.47486184</v>
       </c>
       <c r="AF11" t="n">
         <v>3.002604796857416e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.3587962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1884018.554197114</v>
+        <v>2252962.571296184</v>
       </c>
     </row>
     <row r="12">
@@ -41414,28 +41414,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1520.654904245092</v>
+        <v>1818.752744558559</v>
       </c>
       <c r="AB12" t="n">
-        <v>2080.627126547779</v>
+        <v>2488.497742813217</v>
       </c>
       <c r="AC12" t="n">
-        <v>1882.054993768571</v>
+        <v>2250.999010867641</v>
       </c>
       <c r="AD12" t="n">
-        <v>1520654.904245092</v>
+        <v>1818752.744558559</v>
       </c>
       <c r="AE12" t="n">
-        <v>2080627.126547779</v>
+        <v>2488497.742813217</v>
       </c>
       <c r="AF12" t="n">
         <v>3.003700923771523e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.33564814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>1882054.993768571</v>
+        <v>2250999.010867641</v>
       </c>
     </row>
     <row r="13">
@@ -41520,28 +41520,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1524.289813463826</v>
+        <v>1822.387653777293</v>
       </c>
       <c r="AB13" t="n">
-        <v>2085.600569701727</v>
+        <v>2493.471185967166</v>
       </c>
       <c r="AC13" t="n">
-        <v>1886.553778488178</v>
+        <v>2255.497795587248</v>
       </c>
       <c r="AD13" t="n">
-        <v>1524289.813463826</v>
+        <v>1822387.653777293</v>
       </c>
       <c r="AE13" t="n">
-        <v>2085600.569701727</v>
+        <v>2493471.185967166</v>
       </c>
       <c r="AF13" t="n">
         <v>3.002917975975733e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.3587962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1886553.778488178</v>
+        <v>2255497.795587248</v>
       </c>
     </row>
   </sheetData>
@@ -41817,28 +41817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3997.699520880384</v>
+        <v>4532.993623010352</v>
       </c>
       <c r="AB2" t="n">
-        <v>5469.828850524424</v>
+        <v>6202.241856567776</v>
       </c>
       <c r="AC2" t="n">
-        <v>4947.796061983174</v>
+        <v>5610.308598677831</v>
       </c>
       <c r="AD2" t="n">
-        <v>3997699.520880384</v>
+        <v>4532993.623010352</v>
       </c>
       <c r="AE2" t="n">
-        <v>5469828.850524424</v>
+        <v>6202241.856567776</v>
       </c>
       <c r="AF2" t="n">
         <v>1.53888658184513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>107</v>
+        <v>106.4236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4947796.061983174</v>
+        <v>5610308.598677831</v>
       </c>
     </row>
     <row r="3">
@@ -41923,28 +41923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2538.528731697675</v>
+        <v>2927.91355257851</v>
       </c>
       <c r="AB3" t="n">
-        <v>3473.327002692602</v>
+        <v>4006.100493067696</v>
       </c>
       <c r="AC3" t="n">
-        <v>3141.837548400554</v>
+        <v>3623.763884606518</v>
       </c>
       <c r="AD3" t="n">
-        <v>2538528.731697675</v>
+        <v>2927913.55257851</v>
       </c>
       <c r="AE3" t="n">
-        <v>3473327.002692602</v>
+        <v>4006100.493067696</v>
       </c>
       <c r="AF3" t="n">
         <v>2.105710749450095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.76620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>3141837.548400554</v>
+        <v>3623763.884606518</v>
       </c>
     </row>
     <row r="4">
@@ -42029,28 +42029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2208.568245571204</v>
+        <v>2558.940431472495</v>
       </c>
       <c r="AB4" t="n">
-        <v>3021.86050874506</v>
+        <v>3501.255190825153</v>
       </c>
       <c r="AC4" t="n">
-        <v>2733.458382998179</v>
+        <v>3167.100309455192</v>
       </c>
       <c r="AD4" t="n">
-        <v>2208568.245571204</v>
+        <v>2558940.431472495</v>
       </c>
       <c r="AE4" t="n">
-        <v>3021860.50874506</v>
+        <v>3501255.190825153</v>
       </c>
       <c r="AF4" t="n">
         <v>2.323469709496036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.48611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2733458.382998179</v>
+        <v>3167100.309455192</v>
       </c>
     </row>
     <row r="5">
@@ -42135,28 +42135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2057.398544587652</v>
+        <v>2388.332238321807</v>
       </c>
       <c r="AB5" t="n">
-        <v>2815.023454722669</v>
+        <v>3267.821534254094</v>
       </c>
       <c r="AC5" t="n">
-        <v>2546.36156711417</v>
+        <v>2955.945233441089</v>
       </c>
       <c r="AD5" t="n">
-        <v>2057398.544587652</v>
+        <v>2388332.238321807</v>
       </c>
       <c r="AE5" t="n">
-        <v>2815023.454722669</v>
+        <v>3267821.534254094</v>
       </c>
       <c r="AF5" t="n">
         <v>2.441192552093972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2546361.56711417</v>
+        <v>2955945.233441089</v>
       </c>
     </row>
     <row r="6">
@@ -42241,28 +42241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1966.108736049381</v>
+        <v>2287.306100990575</v>
       </c>
       <c r="AB6" t="n">
-        <v>2690.116711258494</v>
+        <v>3129.593116198872</v>
       </c>
       <c r="AC6" t="n">
-        <v>2433.3757479385</v>
+        <v>2830.90914160026</v>
       </c>
       <c r="AD6" t="n">
-        <v>1966108.736049381</v>
+        <v>2287306.100990575</v>
       </c>
       <c r="AE6" t="n">
-        <v>2690116.711258493</v>
+        <v>3129593.116198872</v>
       </c>
       <c r="AF6" t="n">
         <v>2.513637378308086e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.15046296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>2433375.7479385</v>
+        <v>2830909.14160026</v>
       </c>
     </row>
     <row r="7">
@@ -42347,28 +42347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1898.689749598379</v>
+        <v>2219.920268928497</v>
       </c>
       <c r="AB7" t="n">
-        <v>2597.871079680467</v>
+        <v>3037.392847918434</v>
       </c>
       <c r="AC7" t="n">
-        <v>2349.933909970723</v>
+        <v>2747.508337520621</v>
       </c>
       <c r="AD7" t="n">
-        <v>1898689.749598379</v>
+        <v>2219920.268928497</v>
       </c>
       <c r="AE7" t="n">
-        <v>2597871.079680467</v>
+        <v>3037392.847918434</v>
       </c>
       <c r="AF7" t="n">
         <v>2.5607548141075e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.95833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2349933.909970723</v>
+        <v>2747508.337520621</v>
       </c>
     </row>
     <row r="8">
@@ -42453,28 +42453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1860.03214815312</v>
+        <v>2171.493184301352</v>
       </c>
       <c r="AB8" t="n">
-        <v>2544.978043930053</v>
+        <v>2971.13277427921</v>
       </c>
       <c r="AC8" t="n">
-        <v>2302.088911316487</v>
+        <v>2687.572032313041</v>
       </c>
       <c r="AD8" t="n">
-        <v>1860032.14815312</v>
+        <v>2171493.184301352</v>
       </c>
       <c r="AE8" t="n">
-        <v>2544978.043930053</v>
+        <v>2971132.77427921</v>
       </c>
       <c r="AF8" t="n">
         <v>2.596977227214557e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.05555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>2302088.911316487</v>
+        <v>2687572.032313041</v>
       </c>
     </row>
     <row r="9">
@@ -42559,28 +42559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1819.082134767966</v>
+        <v>2130.509005497418</v>
       </c>
       <c r="AB9" t="n">
-        <v>2488.948429029398</v>
+        <v>2915.056412745307</v>
       </c>
       <c r="AC9" t="n">
-        <v>2251.406684223892</v>
+        <v>2636.847520020266</v>
       </c>
       <c r="AD9" t="n">
-        <v>1819082.134767966</v>
+        <v>2130509.005497417</v>
       </c>
       <c r="AE9" t="n">
-        <v>2488948.429029398</v>
+        <v>2915056.412745307</v>
       </c>
       <c r="AF9" t="n">
         <v>2.625134493653246e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>63</v>
+        <v>62.38425925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>2251406.684223892</v>
+        <v>2636847.520020266</v>
       </c>
     </row>
     <row r="10">
@@ -42665,28 +42665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1783.024260467005</v>
+        <v>2094.518451004161</v>
       </c>
       <c r="AB10" t="n">
-        <v>2439.612454649679</v>
+        <v>2865.81254829643</v>
       </c>
       <c r="AC10" t="n">
-        <v>2206.779265995498</v>
+        <v>2592.303420880191</v>
       </c>
       <c r="AD10" t="n">
-        <v>1783024.260467005</v>
+        <v>2094518.451004161</v>
       </c>
       <c r="AE10" t="n">
-        <v>2439612.454649679</v>
+        <v>2865812.54829643</v>
       </c>
       <c r="AF10" t="n">
         <v>2.645792588628365e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.89814814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>2206779.265995498</v>
+        <v>2592303.420880191</v>
       </c>
     </row>
     <row r="11">
@@ -42771,28 +42771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1759.723677964761</v>
+        <v>2071.217868501917</v>
       </c>
       <c r="AB11" t="n">
-        <v>2407.731569720958</v>
+        <v>2833.931663367708</v>
       </c>
       <c r="AC11" t="n">
-        <v>2177.941047979271</v>
+        <v>2563.465202863964</v>
       </c>
       <c r="AD11" t="n">
-        <v>1759723.677964761</v>
+        <v>2071217.868501917</v>
       </c>
       <c r="AE11" t="n">
-        <v>2407731.569720958</v>
+        <v>2833931.663367708</v>
       </c>
       <c r="AF11" t="n">
         <v>2.662205869567499e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>62</v>
+        <v>61.5162037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>2177941.047979272</v>
+        <v>2563465.202863964</v>
       </c>
     </row>
     <row r="12">
@@ -42877,28 +42877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1734.304375462993</v>
+        <v>2036.029082818265</v>
       </c>
       <c r="AB12" t="n">
-        <v>2372.951758617558</v>
+        <v>2785.784814375676</v>
       </c>
       <c r="AC12" t="n">
-        <v>2146.480573233808</v>
+        <v>2519.913421565204</v>
       </c>
       <c r="AD12" t="n">
-        <v>1734304.375462993</v>
+        <v>2036029.082818265</v>
       </c>
       <c r="AE12" t="n">
-        <v>2372951.758617559</v>
+        <v>2785784.814375676</v>
       </c>
       <c r="AF12" t="n">
         <v>2.676921224892241e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>62</v>
+        <v>61.18055555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>2146480.573233808</v>
+        <v>2519913.421565204</v>
       </c>
     </row>
     <row r="13">
@@ -42983,28 +42983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1703.157552490523</v>
+        <v>2014.617577608898</v>
       </c>
       <c r="AB13" t="n">
-        <v>2330.335301325774</v>
+        <v>2756.488648339277</v>
       </c>
       <c r="AC13" t="n">
-        <v>2107.931370813379</v>
+        <v>2493.413240497892</v>
       </c>
       <c r="AD13" t="n">
-        <v>1703157.552490523</v>
+        <v>2014617.577608898</v>
       </c>
       <c r="AE13" t="n">
-        <v>2330335.301325774</v>
+        <v>2756488.648339277</v>
       </c>
       <c r="AF13" t="n">
         <v>2.689089691795394e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.90277777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>2107931.370813379</v>
+        <v>2493413.240497892</v>
       </c>
     </row>
     <row r="14">
@@ -43089,28 +43089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1682.0858999912</v>
+        <v>1983.877927154177</v>
       </c>
       <c r="AB14" t="n">
-        <v>2301.504136760502</v>
+        <v>2714.429302449461</v>
       </c>
       <c r="AC14" t="n">
-        <v>2081.851812129422</v>
+        <v>2455.367979549137</v>
       </c>
       <c r="AD14" t="n">
-        <v>1682085.8999912</v>
+        <v>1983877.927154177</v>
       </c>
       <c r="AE14" t="n">
-        <v>2301504.136760502</v>
+        <v>2714429.302449461</v>
       </c>
       <c r="AF14" t="n">
         <v>2.701682640102144e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>61</v>
+        <v>60.61342592592592</v>
       </c>
       <c r="AH14" t="n">
-        <v>2081851.812129422</v>
+        <v>2455367.979549137</v>
       </c>
     </row>
     <row r="15">
@@ -43195,28 +43195,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1665.896344241855</v>
+        <v>1967.586886178346</v>
       </c>
       <c r="AB15" t="n">
-        <v>2279.352872351456</v>
+        <v>2692.139181476326</v>
       </c>
       <c r="AC15" t="n">
-        <v>2061.814633306081</v>
+        <v>2435.205196437297</v>
       </c>
       <c r="AD15" t="n">
-        <v>1665896.344241855</v>
+        <v>1967586.886178346</v>
       </c>
       <c r="AE15" t="n">
-        <v>2279352.872351456</v>
+        <v>2692139.181476326</v>
       </c>
       <c r="AF15" t="n">
         <v>2.707059404547723e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>61</v>
+        <v>60.49768518518519</v>
       </c>
       <c r="AH15" t="n">
-        <v>2061814.633306081</v>
+        <v>2435205.196437297</v>
       </c>
     </row>
     <row r="16">
@@ -43301,28 +43301,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1653.37828566261</v>
+        <v>1955.068827599101</v>
       </c>
       <c r="AB16" t="n">
-        <v>2262.225112345565</v>
+        <v>2675.011421470434</v>
       </c>
       <c r="AC16" t="n">
-        <v>2046.32152267619</v>
+        <v>2419.712085807406</v>
       </c>
       <c r="AD16" t="n">
-        <v>1653378.28566261</v>
+        <v>1955068.827599101</v>
       </c>
       <c r="AE16" t="n">
-        <v>2262225.112345565</v>
+        <v>2675011.421470434</v>
       </c>
       <c r="AF16" t="n">
         <v>2.714983057414892e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>61</v>
+        <v>60.32407407407408</v>
       </c>
       <c r="AH16" t="n">
-        <v>2046321.52267619</v>
+        <v>2419712.085807406</v>
       </c>
     </row>
     <row r="17">
@@ -43407,28 +43407,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1647.316539310382</v>
+        <v>1949.007081246873</v>
       </c>
       <c r="AB17" t="n">
-        <v>2253.931163561072</v>
+        <v>2666.717472685942</v>
       </c>
       <c r="AC17" t="n">
-        <v>2038.819136723059</v>
+        <v>2412.209699854275</v>
       </c>
       <c r="AD17" t="n">
-        <v>1647316.539310382</v>
+        <v>1949007.081246873</v>
       </c>
       <c r="AE17" t="n">
-        <v>2253931.163561072</v>
+        <v>2666717.472685941</v>
       </c>
       <c r="AF17" t="n">
         <v>2.716539489228085e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>61</v>
+        <v>60.28935185185185</v>
       </c>
       <c r="AH17" t="n">
-        <v>2038819.136723059</v>
+        <v>2412209.699854275</v>
       </c>
     </row>
     <row r="18">
@@ -43513,28 +43513,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1650.713920294071</v>
+        <v>1952.404462230562</v>
       </c>
       <c r="AB18" t="n">
-        <v>2258.579610104825</v>
+        <v>2671.365919229695</v>
       </c>
       <c r="AC18" t="n">
-        <v>2043.023942052812</v>
+        <v>2416.414505184028</v>
       </c>
       <c r="AD18" t="n">
-        <v>1650713.920294071</v>
+        <v>1952404.462230562</v>
       </c>
       <c r="AE18" t="n">
-        <v>2258579.610104825</v>
+        <v>2671365.919229695</v>
       </c>
       <c r="AF18" t="n">
         <v>2.716256501625687e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>61</v>
+        <v>60.28935185185185</v>
       </c>
       <c r="AH18" t="n">
-        <v>2043023.942052812</v>
+        <v>2416414.505184028</v>
       </c>
     </row>
   </sheetData>
@@ -43810,28 +43810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1057.71439019187</v>
+        <v>1373.684486875108</v>
       </c>
       <c r="AB2" t="n">
-        <v>1447.211491726098</v>
+        <v>1879.535717624962</v>
       </c>
       <c r="AC2" t="n">
-        <v>1309.091658129844</v>
+        <v>1700.155466679782</v>
       </c>
       <c r="AD2" t="n">
-        <v>1057714.39019187</v>
+        <v>1373684.486875108</v>
       </c>
       <c r="AE2" t="n">
-        <v>1447211.491726098</v>
+        <v>1879535.717624962</v>
       </c>
       <c r="AF2" t="n">
         <v>5.87283173843421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.65046296296298</v>
       </c>
       <c r="AH2" t="n">
-        <v>1309091.658129844</v>
+        <v>1700155.466679782</v>
       </c>
     </row>
   </sheetData>
@@ -44107,28 +44107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2119.845194696829</v>
+        <v>2506.842800913881</v>
       </c>
       <c r="AB2" t="n">
-        <v>2900.465716353812</v>
+        <v>3429.972914309604</v>
       </c>
       <c r="AC2" t="n">
-        <v>2623.649339214204</v>
+        <v>3102.621113364986</v>
       </c>
       <c r="AD2" t="n">
-        <v>2119845.194696829</v>
+        <v>2506842.800913881</v>
       </c>
       <c r="AE2" t="n">
-        <v>2900465.716353812</v>
+        <v>3429972.914309604</v>
       </c>
       <c r="AF2" t="n">
         <v>2.72567313323561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.4675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2623649.339214204</v>
+        <v>3102621.113364986</v>
       </c>
     </row>
     <row r="3">
@@ -44213,28 +44213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1647.094633207929</v>
+        <v>1968.058815238937</v>
       </c>
       <c r="AB3" t="n">
-        <v>2253.627541841889</v>
+        <v>2692.784895637068</v>
       </c>
       <c r="AC3" t="n">
-        <v>2038.544492234619</v>
+        <v>2435.789284544803</v>
       </c>
       <c r="AD3" t="n">
-        <v>1647094.633207929</v>
+        <v>1968058.815238937</v>
       </c>
       <c r="AE3" t="n">
-        <v>2253627.541841889</v>
+        <v>2692784.895637068</v>
       </c>
       <c r="AF3" t="n">
         <v>3.227578752414319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.10648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>2038544.492234619</v>
+        <v>2435789.284544803</v>
       </c>
     </row>
     <row r="4">
@@ -44319,28 +44319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1501.020225423173</v>
+        <v>1812.574453982591</v>
       </c>
       <c r="AB4" t="n">
-        <v>2053.762092762733</v>
+        <v>2480.044333080234</v>
       </c>
       <c r="AC4" t="n">
-        <v>1857.753921102658</v>
+        <v>2243.352382695138</v>
       </c>
       <c r="AD4" t="n">
-        <v>1501020.225423173</v>
+        <v>1812574.45398259</v>
       </c>
       <c r="AE4" t="n">
-        <v>2053762.092762733</v>
+        <v>2480044.333080234</v>
       </c>
       <c r="AF4" t="n">
         <v>3.404986107739233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.61111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1857753.921102658</v>
+        <v>2243352.382695138</v>
       </c>
     </row>
     <row r="5">
@@ -44425,28 +44425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1415.18597550501</v>
+        <v>1717.297096203913</v>
       </c>
       <c r="AB5" t="n">
-        <v>1936.319885284851</v>
+        <v>2349.681648827079</v>
       </c>
       <c r="AC5" t="n">
-        <v>1751.520233075292</v>
+        <v>2125.431330061928</v>
       </c>
       <c r="AD5" t="n">
-        <v>1415185.97550501</v>
+        <v>1717297.096203913</v>
       </c>
       <c r="AE5" t="n">
-        <v>1936319.885284851</v>
+        <v>2349681.648827079</v>
       </c>
       <c r="AF5" t="n">
         <v>3.501549604941401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.86342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1751520.233075292</v>
+        <v>2125431.330061928</v>
       </c>
     </row>
     <row r="6">
@@ -44531,28 +44531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1357.512845036622</v>
+        <v>1659.589800316744</v>
       </c>
       <c r="AB6" t="n">
-        <v>1857.408963819058</v>
+        <v>2270.723980728038</v>
       </c>
       <c r="AC6" t="n">
-        <v>1680.14045920202</v>
+        <v>2054.009270988477</v>
       </c>
       <c r="AD6" t="n">
-        <v>1357512.845036622</v>
+        <v>1659589.800316744</v>
       </c>
       <c r="AE6" t="n">
-        <v>1857408.963819059</v>
+        <v>2270723.980728038</v>
       </c>
       <c r="AF6" t="n">
         <v>3.555819787477503e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.91435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1680140.45920202</v>
+        <v>2054009.270988477</v>
       </c>
     </row>
     <row r="7">
@@ -44637,28 +44637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1349.323353889281</v>
+        <v>1651.400309169404</v>
       </c>
       <c r="AB7" t="n">
-        <v>1846.203740736417</v>
+        <v>2259.518757645396</v>
       </c>
       <c r="AC7" t="n">
-        <v>1670.004646883756</v>
+        <v>2043.873458670213</v>
       </c>
       <c r="AD7" t="n">
-        <v>1349323.353889281</v>
+        <v>1651400.309169404</v>
       </c>
       <c r="AE7" t="n">
-        <v>1846203.740736417</v>
+        <v>2259518.757645396</v>
       </c>
       <c r="AF7" t="n">
         <v>3.564802438380031e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.76388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1670004.646883756</v>
+        <v>2043873.458670213</v>
       </c>
     </row>
     <row r="8">
@@ -44743,28 +44743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1352.845803841616</v>
+        <v>1654.922759121738</v>
       </c>
       <c r="AB8" t="n">
-        <v>1851.023312160725</v>
+        <v>2264.338329069705</v>
       </c>
       <c r="AC8" t="n">
-        <v>1674.36424517564</v>
+        <v>2048.233056962096</v>
       </c>
       <c r="AD8" t="n">
-        <v>1352845.803841616</v>
+        <v>1654922.759121738</v>
       </c>
       <c r="AE8" t="n">
-        <v>1851023.312160725</v>
+        <v>2264338.329069705</v>
       </c>
       <c r="AF8" t="n">
         <v>3.564428161259091e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1674364.24517564</v>
+        <v>2048233.056962096</v>
       </c>
     </row>
   </sheetData>
@@ -45040,28 +45040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2658.084717283984</v>
+        <v>3087.887558930436</v>
       </c>
       <c r="AB2" t="n">
-        <v>3636.908776609633</v>
+        <v>4224.983986113476</v>
       </c>
       <c r="AC2" t="n">
-        <v>3289.807307403399</v>
+        <v>3821.757444280914</v>
       </c>
       <c r="AD2" t="n">
-        <v>2658084.717283984</v>
+        <v>3087887.558930436</v>
       </c>
       <c r="AE2" t="n">
-        <v>3636908.776609633</v>
+        <v>4224983.986113476</v>
       </c>
       <c r="AF2" t="n">
         <v>2.20441831820326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.48842592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>3289807.307403399</v>
+        <v>3821757.444280914</v>
       </c>
     </row>
     <row r="3">
@@ -45146,28 +45146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1934.469128933159</v>
+        <v>2278.311604456294</v>
       </c>
       <c r="AB3" t="n">
-        <v>2646.826004961127</v>
+        <v>3117.286449231487</v>
       </c>
       <c r="AC3" t="n">
-        <v>2394.216645891266</v>
+        <v>2819.777005655726</v>
       </c>
       <c r="AD3" t="n">
-        <v>1934469.128933159</v>
+        <v>2278311.604456294</v>
       </c>
       <c r="AE3" t="n">
-        <v>2646826.004961127</v>
+        <v>3117286.449231487</v>
       </c>
       <c r="AF3" t="n">
         <v>2.73765126236007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.45138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2394216.645891265</v>
+        <v>2819777.005655726</v>
       </c>
     </row>
     <row r="4">
@@ -45252,28 +45252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1738.218823151585</v>
+        <v>2063.018722584178</v>
       </c>
       <c r="AB4" t="n">
-        <v>2378.307678638334</v>
+        <v>2822.713230202269</v>
       </c>
       <c r="AC4" t="n">
-        <v>2151.325331764882</v>
+        <v>2553.317441214665</v>
       </c>
       <c r="AD4" t="n">
-        <v>1738218.823151585</v>
+        <v>2063018.722584178</v>
       </c>
       <c r="AE4" t="n">
-        <v>2378307.678638334</v>
+        <v>2822713.230202269</v>
       </c>
       <c r="AF4" t="n">
         <v>2.931281475207012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>66</v>
+        <v>65.79861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2151325.331764882</v>
+        <v>2553317.441214665</v>
       </c>
     </row>
     <row r="5">
@@ -45358,28 +45358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1640.537931650047</v>
+        <v>1955.782883133517</v>
       </c>
       <c r="AB5" t="n">
-        <v>2244.656373509137</v>
+        <v>2675.98842375453</v>
       </c>
       <c r="AC5" t="n">
-        <v>2030.429519616431</v>
+        <v>2420.595844364738</v>
       </c>
       <c r="AD5" t="n">
-        <v>1640537.931650047</v>
+        <v>1955782.883133517</v>
       </c>
       <c r="AE5" t="n">
-        <v>2244656.373509137</v>
+        <v>2675988.42375453</v>
       </c>
       <c r="AF5" t="n">
         <v>3.034595358137393e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>64</v>
+        <v>63.55324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>2030429.519616431</v>
+        <v>2420595.844364738</v>
       </c>
     </row>
     <row r="6">
@@ -45464,28 +45464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1582.643716091357</v>
+        <v>1888.266399818</v>
       </c>
       <c r="AB6" t="n">
-        <v>2165.442953669207</v>
+        <v>2583.609392665216</v>
       </c>
       <c r="AC6" t="n">
-        <v>1958.776117389291</v>
+        <v>2337.033338347804</v>
       </c>
       <c r="AD6" t="n">
-        <v>1582643.716091357</v>
+        <v>1888266.399818</v>
       </c>
       <c r="AE6" t="n">
-        <v>2165442.953669207</v>
+        <v>2583609.392665216</v>
       </c>
       <c r="AF6" t="n">
         <v>3.092751076109495e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>63</v>
+        <v>62.36111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1958776.117389291</v>
+        <v>2337033.338347804</v>
       </c>
     </row>
     <row r="7">
@@ -45570,28 +45570,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1530.17395911253</v>
+        <v>1835.762477420393</v>
       </c>
       <c r="AB7" t="n">
-        <v>2093.651517368469</v>
+        <v>2511.77120973123</v>
       </c>
       <c r="AC7" t="n">
-        <v>1893.836355009181</v>
+        <v>2272.051290767515</v>
       </c>
       <c r="AD7" t="n">
-        <v>1530173.95911253</v>
+        <v>1835762.477420393</v>
       </c>
       <c r="AE7" t="n">
-        <v>2093651.517368469</v>
+        <v>2511771.20973123</v>
       </c>
       <c r="AF7" t="n">
         <v>3.138575782247971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>61.44675925925927</v>
       </c>
       <c r="AH7" t="n">
-        <v>1893836.355009181</v>
+        <v>2272051.290767515</v>
       </c>
     </row>
     <row r="8">
@@ -45676,28 +45676,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1482.951521549697</v>
+        <v>1788.607359665265</v>
       </c>
       <c r="AB8" t="n">
-        <v>2029.039694988088</v>
+        <v>2447.251497281691</v>
       </c>
       <c r="AC8" t="n">
-        <v>1835.390994273522</v>
+        <v>2213.689249120175</v>
       </c>
       <c r="AD8" t="n">
-        <v>1482951.521549697</v>
+        <v>1788607.359665265</v>
       </c>
       <c r="AE8" t="n">
-        <v>2029039.694988088</v>
+        <v>2447251.497281691</v>
       </c>
       <c r="AF8" t="n">
         <v>3.169236676536988e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.85648148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>1835390.994273522</v>
+        <v>2213689.249120175</v>
       </c>
     </row>
     <row r="9">
@@ -45782,28 +45782,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1459.115902140078</v>
+        <v>1755.285123144085</v>
       </c>
       <c r="AB9" t="n">
-        <v>1996.426748958534</v>
+        <v>2401.65854320009</v>
       </c>
       <c r="AC9" t="n">
-        <v>1805.890582040471</v>
+        <v>2172.447622586008</v>
       </c>
       <c r="AD9" t="n">
-        <v>1459115.902140078</v>
+        <v>1755285.123144085</v>
       </c>
       <c r="AE9" t="n">
-        <v>1996426.748958534</v>
+        <v>2401658.54320009</v>
       </c>
       <c r="AF9" t="n">
         <v>3.186566747222084e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.52083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1805890.582040471</v>
+        <v>2172447.622586009</v>
       </c>
     </row>
     <row r="10">
@@ -45888,28 +45888,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1453.821466162415</v>
+        <v>1749.889201939937</v>
       </c>
       <c r="AB10" t="n">
-        <v>1989.182668079865</v>
+        <v>2394.275605757332</v>
       </c>
       <c r="AC10" t="n">
-        <v>1799.337866073731</v>
+        <v>2165.76930233077</v>
       </c>
       <c r="AD10" t="n">
-        <v>1453821.466162415</v>
+        <v>1749889.201939936</v>
       </c>
       <c r="AE10" t="n">
-        <v>1989182.668079865</v>
+        <v>2394275.605757331</v>
       </c>
       <c r="AF10" t="n">
         <v>3.192065711958701e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.41666666666668</v>
       </c>
       <c r="AH10" t="n">
-        <v>1799337.866073731</v>
+        <v>2165769.30233077</v>
       </c>
     </row>
     <row r="11">
@@ -45994,28 +45994,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1458.448345050751</v>
+        <v>1754.516080828273</v>
       </c>
       <c r="AB11" t="n">
-        <v>1995.513367898377</v>
+        <v>2400.606305575844</v>
       </c>
       <c r="AC11" t="n">
-        <v>1805.064372786758</v>
+        <v>2171.495809043796</v>
       </c>
       <c r="AD11" t="n">
-        <v>1458448.345050751</v>
+        <v>1754516.080828273</v>
       </c>
       <c r="AE11" t="n">
-        <v>1995513.367898377</v>
+        <v>2400606.305575844</v>
       </c>
       <c r="AF11" t="n">
         <v>3.191565806073555e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.42824074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>1805064.372786758</v>
+        <v>2171495.809043796</v>
       </c>
     </row>
   </sheetData>
